--- a/Assets/ArtRes/Excel/角色属性表.xlsx
+++ b/Assets/ArtRes/Excel/角色属性表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox网盘\Dropbox\A网课视频\Unity入门到就业系列课\23.2024年独立游戏开发包\ARPG\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project2024\Project2024\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0846205B-B4F5-461B-A205-392ED2DF78BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F9EAED-EBF7-4E3D-A238-093D7721E3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T_Player" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="266">
   <si>
     <t>f_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1094,6 +1094,10 @@
   </si>
   <si>
     <t>3_60</t>
+  </si>
+  <si>
+    <t>46_11100033</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1283,7 +1287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1339,9 +1343,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1365,6 +1366,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1650,18 +1657,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:X2"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="27" max="27" width="36.2109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="27"/>
+    <col min="27" max="27" width="36.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.58203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="8" customFormat="1" ht="48.9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="8" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1756,7 +1764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="8" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1805,12 +1813,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>34</v>
       </c>
@@ -1905,7 +1913,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>65</v>
       </c>
@@ -1915,8 +1923,8 @@
       <c r="C5" s="18">
         <v>1</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>67</v>
+      <c r="D5" s="28" t="s">
+        <v>265</v>
       </c>
       <c r="E5" s="18">
         <v>150</v>
@@ -1981,26 +1989,26 @@
       <c r="Y5" s="17">
         <v>10</v>
       </c>
-      <c r="Z5" s="20" t="s">
+      <c r="Z5" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA5" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB5" s="21" t="s">
+      <c r="AB5" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC5" s="17">
         <v>5</v>
       </c>
-      <c r="AD5" s="22" t="s">
+      <c r="AD5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE5" s="20" t="s">
+      <c r="AE5" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>74</v>
       </c>
@@ -2010,7 +2018,7 @@
       <c r="C6" s="18">
         <v>2</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="18">
@@ -2076,26 +2084,26 @@
       <c r="Y6" s="17">
         <v>10</v>
       </c>
-      <c r="Z6" s="20" t="s">
+      <c r="Z6" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB6" s="21" t="s">
+      <c r="AB6" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC6" s="17">
         <v>5</v>
       </c>
-      <c r="AD6" s="22" t="s">
+      <c r="AD6" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AE6" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>75</v>
       </c>
@@ -2105,7 +2113,7 @@
       <c r="C7" s="18">
         <v>3</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="18">
@@ -2171,26 +2179,26 @@
       <c r="Y7" s="17">
         <v>10</v>
       </c>
-      <c r="Z7" s="20" t="s">
+      <c r="Z7" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB7" s="21" t="s">
+      <c r="AB7" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC7" s="17">
         <v>5</v>
       </c>
-      <c r="AD7" s="22" t="s">
+      <c r="AD7" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE7" s="20" t="s">
+      <c r="AE7" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>76</v>
       </c>
@@ -2200,7 +2208,7 @@
       <c r="C8" s="18">
         <v>4</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E8" s="18">
@@ -2266,26 +2274,26 @@
       <c r="Y8" s="17">
         <v>10</v>
       </c>
-      <c r="Z8" s="20" t="s">
+      <c r="Z8" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA8" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB8" s="21" t="s">
+      <c r="AB8" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC8" s="17">
         <v>5</v>
       </c>
-      <c r="AD8" s="22" t="s">
+      <c r="AD8" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE8" s="20" t="s">
+      <c r="AE8" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
@@ -2295,7 +2303,7 @@
       <c r="C9" s="18">
         <v>5</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="18">
@@ -2361,26 +2369,26 @@
       <c r="Y9" s="17">
         <v>10</v>
       </c>
-      <c r="Z9" s="20" t="s">
+      <c r="Z9" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA9" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB9" s="21" t="s">
+      <c r="AB9" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC9" s="17">
         <v>5</v>
       </c>
-      <c r="AD9" s="22" t="s">
+      <c r="AD9" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AE9" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>78</v>
       </c>
@@ -2390,7 +2398,7 @@
       <c r="C10" s="18">
         <v>6</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="18">
@@ -2456,26 +2464,26 @@
       <c r="Y10" s="17">
         <v>10</v>
       </c>
-      <c r="Z10" s="20" t="s">
+      <c r="Z10" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB10" s="21" t="s">
+      <c r="AB10" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC10" s="17">
         <v>5</v>
       </c>
-      <c r="AD10" s="22" t="s">
+      <c r="AD10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AE10" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>79</v>
       </c>
@@ -2485,7 +2493,7 @@
       <c r="C11" s="18">
         <v>7</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="18">
@@ -2551,26 +2559,26 @@
       <c r="Y11" s="17">
         <v>10</v>
       </c>
-      <c r="Z11" s="20" t="s">
+      <c r="Z11" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA11" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB11" s="21" t="s">
+      <c r="AB11" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC11" s="17">
         <v>5</v>
       </c>
-      <c r="AD11" s="22" t="s">
+      <c r="AD11" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE11" s="20" t="s">
+      <c r="AE11" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>80</v>
       </c>
@@ -2580,7 +2588,7 @@
       <c r="C12" s="18">
         <v>8</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="18">
@@ -2646,26 +2654,26 @@
       <c r="Y12" s="17">
         <v>10</v>
       </c>
-      <c r="Z12" s="20" t="s">
+      <c r="Z12" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA12" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB12" s="21" t="s">
+      <c r="AB12" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC12" s="17">
         <v>5</v>
       </c>
-      <c r="AD12" s="22" t="s">
+      <c r="AD12" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE12" s="20" t="s">
+      <c r="AE12" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>81</v>
       </c>
@@ -2675,7 +2683,7 @@
       <c r="C13" s="18">
         <v>9</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="18">
@@ -2741,26 +2749,26 @@
       <c r="Y13" s="17">
         <v>10</v>
       </c>
-      <c r="Z13" s="20" t="s">
+      <c r="Z13" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA13" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB13" s="21" t="s">
+      <c r="AB13" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC13" s="17">
         <v>5</v>
       </c>
-      <c r="AD13" s="22" t="s">
+      <c r="AD13" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE13" s="20" t="s">
+      <c r="AE13" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>82</v>
       </c>
@@ -2770,7 +2778,7 @@
       <c r="C14" s="18">
         <v>10</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="18">
@@ -2836,26 +2844,26 @@
       <c r="Y14" s="17">
         <v>10</v>
       </c>
-      <c r="Z14" s="20" t="s">
+      <c r="Z14" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA14" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB14" s="21" t="s">
+      <c r="AB14" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC14" s="17">
         <v>5</v>
       </c>
-      <c r="AD14" s="22" t="s">
+      <c r="AD14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE14" s="20" t="s">
+      <c r="AE14" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>83</v>
       </c>
@@ -2865,7 +2873,7 @@
       <c r="C15" s="18">
         <v>11</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E15" s="18">
@@ -2931,26 +2939,26 @@
       <c r="Y15" s="17">
         <v>10</v>
       </c>
-      <c r="Z15" s="20" t="s">
+      <c r="Z15" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA15" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB15" s="21" t="s">
+      <c r="AB15" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC15" s="17">
         <v>5</v>
       </c>
-      <c r="AD15" s="22" t="s">
+      <c r="AD15" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE15" s="20" t="s">
+      <c r="AE15" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>84</v>
       </c>
@@ -2960,7 +2968,7 @@
       <c r="C16" s="18">
         <v>12</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="18">
@@ -3026,26 +3034,26 @@
       <c r="Y16" s="17">
         <v>10</v>
       </c>
-      <c r="Z16" s="20" t="s">
+      <c r="Z16" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA16" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB16" s="21" t="s">
+      <c r="AB16" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC16" s="17">
         <v>5</v>
       </c>
-      <c r="AD16" s="22" t="s">
+      <c r="AD16" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE16" s="20" t="s">
+      <c r="AE16" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>85</v>
       </c>
@@ -3055,7 +3063,7 @@
       <c r="C17" s="18">
         <v>13</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="18">
@@ -3121,26 +3129,26 @@
       <c r="Y17" s="17">
         <v>10</v>
       </c>
-      <c r="Z17" s="20" t="s">
+      <c r="Z17" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA17" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB17" s="21" t="s">
+      <c r="AB17" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC17" s="17">
         <v>5</v>
       </c>
-      <c r="AD17" s="22" t="s">
+      <c r="AD17" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE17" s="20" t="s">
+      <c r="AE17" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>86</v>
       </c>
@@ -3150,7 +3158,7 @@
       <c r="C18" s="18">
         <v>14</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="18">
@@ -3216,26 +3224,26 @@
       <c r="Y18" s="17">
         <v>10</v>
       </c>
-      <c r="Z18" s="20" t="s">
+      <c r="Z18" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA18" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB18" s="21" t="s">
+      <c r="AB18" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC18" s="17">
         <v>5</v>
       </c>
-      <c r="AD18" s="22" t="s">
+      <c r="AD18" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE18" s="20" t="s">
+      <c r="AE18" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>87</v>
       </c>
@@ -3245,7 +3253,7 @@
       <c r="C19" s="18">
         <v>15</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E19" s="18">
@@ -3311,26 +3319,26 @@
       <c r="Y19" s="17">
         <v>10</v>
       </c>
-      <c r="Z19" s="20" t="s">
+      <c r="Z19" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA19" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB19" s="21" t="s">
+      <c r="AB19" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC19" s="17">
         <v>5</v>
       </c>
-      <c r="AD19" s="22" t="s">
+      <c r="AD19" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE19" s="20" t="s">
+      <c r="AE19" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>88</v>
       </c>
@@ -3340,7 +3348,7 @@
       <c r="C20" s="18">
         <v>16</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E20" s="18">
@@ -3406,26 +3414,26 @@
       <c r="Y20" s="17">
         <v>10</v>
       </c>
-      <c r="Z20" s="20" t="s">
+      <c r="Z20" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA20" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB20" s="21" t="s">
+      <c r="AB20" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC20" s="17">
         <v>5</v>
       </c>
-      <c r="AD20" s="22" t="s">
+      <c r="AD20" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE20" s="20" t="s">
+      <c r="AE20" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>89</v>
       </c>
@@ -3435,7 +3443,7 @@
       <c r="C21" s="18">
         <v>17</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="18">
@@ -3501,26 +3509,26 @@
       <c r="Y21" s="17">
         <v>10</v>
       </c>
-      <c r="Z21" s="20" t="s">
+      <c r="Z21" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA21" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB21" s="21" t="s">
+      <c r="AB21" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC21" s="17">
         <v>5</v>
       </c>
-      <c r="AD21" s="22" t="s">
+      <c r="AD21" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE21" s="20" t="s">
+      <c r="AE21" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>90</v>
       </c>
@@ -3530,7 +3538,7 @@
       <c r="C22" s="18">
         <v>18</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="18">
@@ -3596,26 +3604,26 @@
       <c r="Y22" s="17">
         <v>10</v>
       </c>
-      <c r="Z22" s="20" t="s">
+      <c r="Z22" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA22" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB22" s="21" t="s">
+      <c r="AB22" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC22" s="17">
         <v>5</v>
       </c>
-      <c r="AD22" s="22" t="s">
+      <c r="AD22" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE22" s="20" t="s">
+      <c r="AE22" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>91</v>
       </c>
@@ -3625,7 +3633,7 @@
       <c r="C23" s="18">
         <v>19</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="18">
@@ -3691,26 +3699,26 @@
       <c r="Y23" s="17">
         <v>10</v>
       </c>
-      <c r="Z23" s="20" t="s">
+      <c r="Z23" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA23" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB23" s="21" t="s">
+      <c r="AB23" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC23" s="17">
         <v>5</v>
       </c>
-      <c r="AD23" s="22" t="s">
+      <c r="AD23" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE23" s="20" t="s">
+      <c r="AE23" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>92</v>
       </c>
@@ -3720,7 +3728,7 @@
       <c r="C24" s="18">
         <v>20</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E24" s="18">
@@ -3786,26 +3794,26 @@
       <c r="Y24" s="17">
         <v>10</v>
       </c>
-      <c r="Z24" s="20" t="s">
+      <c r="Z24" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA24" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB24" s="21" t="s">
+      <c r="AB24" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC24" s="17">
         <v>5</v>
       </c>
-      <c r="AD24" s="22" t="s">
+      <c r="AD24" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE24" s="20" t="s">
+      <c r="AE24" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>93</v>
       </c>
@@ -3815,7 +3823,7 @@
       <c r="C25" s="18">
         <v>21</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E25" s="18">
@@ -3881,26 +3889,26 @@
       <c r="Y25" s="17">
         <v>10</v>
       </c>
-      <c r="Z25" s="20" t="s">
+      <c r="Z25" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB25" s="21" t="s">
+      <c r="AB25" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC25" s="17">
         <v>5</v>
       </c>
-      <c r="AD25" s="22" t="s">
+      <c r="AD25" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE25" s="20" t="s">
+      <c r="AE25" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>94</v>
       </c>
@@ -3910,7 +3918,7 @@
       <c r="C26" s="18">
         <v>22</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="18">
@@ -3976,26 +3984,26 @@
       <c r="Y26" s="17">
         <v>10</v>
       </c>
-      <c r="Z26" s="20" t="s">
+      <c r="Z26" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA26" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB26" s="21" t="s">
+      <c r="AB26" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC26" s="17">
         <v>5</v>
       </c>
-      <c r="AD26" s="22" t="s">
+      <c r="AD26" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE26" s="20" t="s">
+      <c r="AE26" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>95</v>
       </c>
@@ -4005,7 +4013,7 @@
       <c r="C27" s="18">
         <v>23</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E27" s="18">
@@ -4071,26 +4079,26 @@
       <c r="Y27" s="17">
         <v>10</v>
       </c>
-      <c r="Z27" s="20" t="s">
+      <c r="Z27" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA27" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB27" s="21" t="s">
+      <c r="AB27" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC27" s="17">
         <v>5</v>
       </c>
-      <c r="AD27" s="22" t="s">
+      <c r="AD27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE27" s="20" t="s">
+      <c r="AE27" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>96</v>
       </c>
@@ -4100,7 +4108,7 @@
       <c r="C28" s="18">
         <v>24</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="18">
@@ -4166,26 +4174,26 @@
       <c r="Y28" s="17">
         <v>10</v>
       </c>
-      <c r="Z28" s="20" t="s">
+      <c r="Z28" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA28" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB28" s="21" t="s">
+      <c r="AB28" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC28" s="17">
         <v>5</v>
       </c>
-      <c r="AD28" s="22" t="s">
+      <c r="AD28" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE28" s="20" t="s">
+      <c r="AE28" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>97</v>
       </c>
@@ -4195,7 +4203,7 @@
       <c r="C29" s="18">
         <v>25</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E29" s="18">
@@ -4261,26 +4269,26 @@
       <c r="Y29" s="17">
         <v>10</v>
       </c>
-      <c r="Z29" s="20" t="s">
+      <c r="Z29" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA29" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB29" s="21" t="s">
+      <c r="AB29" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC29" s="17">
         <v>5</v>
       </c>
-      <c r="AD29" s="22" t="s">
+      <c r="AD29" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE29" s="20" t="s">
+      <c r="AE29" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>98</v>
       </c>
@@ -4290,7 +4298,7 @@
       <c r="C30" s="18">
         <v>26</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="18">
@@ -4356,26 +4364,26 @@
       <c r="Y30" s="17">
         <v>10</v>
       </c>
-      <c r="Z30" s="20" t="s">
+      <c r="Z30" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA30" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB30" s="21" t="s">
+      <c r="AB30" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC30" s="17">
         <v>5</v>
       </c>
-      <c r="AD30" s="22" t="s">
+      <c r="AD30" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE30" s="20" t="s">
+      <c r="AE30" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>99</v>
       </c>
@@ -4385,7 +4393,7 @@
       <c r="C31" s="18">
         <v>27</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="18">
@@ -4451,26 +4459,26 @@
       <c r="Y31" s="17">
         <v>10</v>
       </c>
-      <c r="Z31" s="20" t="s">
+      <c r="Z31" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA31" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB31" s="21" t="s">
+      <c r="AB31" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC31" s="17">
         <v>5</v>
       </c>
-      <c r="AD31" s="22" t="s">
+      <c r="AD31" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE31" s="20" t="s">
+      <c r="AE31" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>100</v>
       </c>
@@ -4480,7 +4488,7 @@
       <c r="C32" s="18">
         <v>28</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E32" s="18">
@@ -4546,26 +4554,26 @@
       <c r="Y32" s="17">
         <v>10</v>
       </c>
-      <c r="Z32" s="20" t="s">
+      <c r="Z32" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB32" s="21" t="s">
+      <c r="AB32" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC32" s="17">
         <v>5</v>
       </c>
-      <c r="AD32" s="22" t="s">
+      <c r="AD32" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE32" s="20" t="s">
+      <c r="AE32" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>101</v>
       </c>
@@ -4575,7 +4583,7 @@
       <c r="C33" s="18">
         <v>29</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="18">
@@ -4641,26 +4649,26 @@
       <c r="Y33" s="17">
         <v>10</v>
       </c>
-      <c r="Z33" s="20" t="s">
+      <c r="Z33" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA33" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB33" s="21" t="s">
+      <c r="AB33" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC33" s="17">
         <v>5</v>
       </c>
-      <c r="AD33" s="22" t="s">
+      <c r="AD33" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE33" s="20" t="s">
+      <c r="AE33" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>102</v>
       </c>
@@ -4670,7 +4678,7 @@
       <c r="C34" s="18">
         <v>30</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="18">
@@ -4736,26 +4744,26 @@
       <c r="Y34" s="17">
         <v>10</v>
       </c>
-      <c r="Z34" s="20" t="s">
+      <c r="Z34" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA34" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB34" s="21" t="s">
+      <c r="AB34" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC34" s="17">
         <v>5</v>
       </c>
-      <c r="AD34" s="22" t="s">
+      <c r="AD34" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE34" s="20" t="s">
+      <c r="AE34" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>103</v>
       </c>
@@ -4765,7 +4773,7 @@
       <c r="C35" s="18">
         <v>31</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E35" s="18">
@@ -4831,26 +4839,26 @@
       <c r="Y35" s="17">
         <v>10</v>
       </c>
-      <c r="Z35" s="20" t="s">
+      <c r="Z35" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA35" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB35" s="21" t="s">
+      <c r="AB35" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC35" s="17">
         <v>5</v>
       </c>
-      <c r="AD35" s="22" t="s">
+      <c r="AD35" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE35" s="20" t="s">
+      <c r="AE35" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>104</v>
       </c>
@@ -4860,7 +4868,7 @@
       <c r="C36" s="18">
         <v>32</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E36" s="18">
@@ -4926,26 +4934,26 @@
       <c r="Y36" s="17">
         <v>10</v>
       </c>
-      <c r="Z36" s="20" t="s">
+      <c r="Z36" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA36" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB36" s="21" t="s">
+      <c r="AB36" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC36" s="17">
         <v>5</v>
       </c>
-      <c r="AD36" s="22" t="s">
+      <c r="AD36" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE36" s="20" t="s">
+      <c r="AE36" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>105</v>
       </c>
@@ -4955,7 +4963,7 @@
       <c r="C37" s="18">
         <v>33</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E37" s="18">
@@ -5021,26 +5029,26 @@
       <c r="Y37" s="17">
         <v>10</v>
       </c>
-      <c r="Z37" s="20" t="s">
+      <c r="Z37" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB37" s="21" t="s">
+      <c r="AB37" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC37" s="17">
         <v>5</v>
       </c>
-      <c r="AD37" s="22" t="s">
+      <c r="AD37" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE37" s="20" t="s">
+      <c r="AE37" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>106</v>
       </c>
@@ -5050,7 +5058,7 @@
       <c r="C38" s="18">
         <v>34</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="18">
@@ -5116,26 +5124,26 @@
       <c r="Y38" s="17">
         <v>10</v>
       </c>
-      <c r="Z38" s="20" t="s">
+      <c r="Z38" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA38" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB38" s="21" t="s">
+      <c r="AB38" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC38" s="17">
         <v>5</v>
       </c>
-      <c r="AD38" s="22" t="s">
+      <c r="AD38" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE38" s="20" t="s">
+      <c r="AE38" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>107</v>
       </c>
@@ -5145,7 +5153,7 @@
       <c r="C39" s="18">
         <v>35</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E39" s="18">
@@ -5211,26 +5219,26 @@
       <c r="Y39" s="17">
         <v>10</v>
       </c>
-      <c r="Z39" s="20" t="s">
+      <c r="Z39" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA39" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB39" s="21" t="s">
+      <c r="AB39" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC39" s="17">
         <v>5</v>
       </c>
-      <c r="AD39" s="22" t="s">
+      <c r="AD39" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE39" s="20" t="s">
+      <c r="AE39" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>108</v>
       </c>
@@ -5240,7 +5248,7 @@
       <c r="C40" s="18">
         <v>36</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E40" s="18">
@@ -5306,26 +5314,26 @@
       <c r="Y40" s="17">
         <v>10</v>
       </c>
-      <c r="Z40" s="20" t="s">
+      <c r="Z40" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA40" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB40" s="21" t="s">
+      <c r="AB40" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC40" s="17">
         <v>5</v>
       </c>
-      <c r="AD40" s="22" t="s">
+      <c r="AD40" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE40" s="20" t="s">
+      <c r="AE40" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>109</v>
       </c>
@@ -5335,7 +5343,7 @@
       <c r="C41" s="18">
         <v>37</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E41" s="18">
@@ -5401,26 +5409,26 @@
       <c r="Y41" s="17">
         <v>10</v>
       </c>
-      <c r="Z41" s="20" t="s">
+      <c r="Z41" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA41" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB41" s="21" t="s">
+      <c r="AB41" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC41" s="17">
         <v>5</v>
       </c>
-      <c r="AD41" s="22" t="s">
+      <c r="AD41" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE41" s="20" t="s">
+      <c r="AE41" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>110</v>
       </c>
@@ -5430,7 +5438,7 @@
       <c r="C42" s="18">
         <v>38</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E42" s="18">
@@ -5496,26 +5504,26 @@
       <c r="Y42" s="17">
         <v>10</v>
       </c>
-      <c r="Z42" s="20" t="s">
+      <c r="Z42" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA42" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB42" s="21" t="s">
+      <c r="AB42" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC42" s="17">
         <v>5</v>
       </c>
-      <c r="AD42" s="22" t="s">
+      <c r="AD42" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE42" s="20" t="s">
+      <c r="AE42" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>111</v>
       </c>
@@ -5525,7 +5533,7 @@
       <c r="C43" s="18">
         <v>39</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="18">
@@ -5591,26 +5599,26 @@
       <c r="Y43" s="17">
         <v>10</v>
       </c>
-      <c r="Z43" s="20" t="s">
+      <c r="Z43" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA43" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB43" s="21" t="s">
+      <c r="AB43" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC43" s="17">
         <v>5</v>
       </c>
-      <c r="AD43" s="22" t="s">
+      <c r="AD43" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE43" s="20" t="s">
+      <c r="AE43" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>112</v>
       </c>
@@ -5620,7 +5628,7 @@
       <c r="C44" s="18">
         <v>40</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E44" s="18">
@@ -5686,26 +5694,26 @@
       <c r="Y44" s="17">
         <v>10</v>
       </c>
-      <c r="Z44" s="20" t="s">
+      <c r="Z44" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA44" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB44" s="21" t="s">
+      <c r="AB44" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC44" s="17">
         <v>5</v>
       </c>
-      <c r="AD44" s="22" t="s">
+      <c r="AD44" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE44" s="20" t="s">
+      <c r="AE44" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>113</v>
       </c>
@@ -5715,7 +5723,7 @@
       <c r="C45" s="18">
         <v>41</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E45" s="18">
@@ -5781,26 +5789,26 @@
       <c r="Y45" s="17">
         <v>10</v>
       </c>
-      <c r="Z45" s="20" t="s">
+      <c r="Z45" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA45" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB45" s="21" t="s">
+      <c r="AB45" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC45" s="17">
         <v>5</v>
       </c>
-      <c r="AD45" s="22" t="s">
+      <c r="AD45" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE45" s="20" t="s">
+      <c r="AE45" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>114</v>
       </c>
@@ -5810,7 +5818,7 @@
       <c r="C46" s="18">
         <v>42</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E46" s="18">
@@ -5876,26 +5884,26 @@
       <c r="Y46" s="17">
         <v>10</v>
       </c>
-      <c r="Z46" s="20" t="s">
+      <c r="Z46" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA46" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB46" s="21" t="s">
+      <c r="AB46" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC46" s="17">
         <v>5</v>
       </c>
-      <c r="AD46" s="22" t="s">
+      <c r="AD46" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE46" s="20" t="s">
+      <c r="AE46" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>115</v>
       </c>
@@ -5905,7 +5913,7 @@
       <c r="C47" s="18">
         <v>43</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E47" s="18">
@@ -5971,26 +5979,26 @@
       <c r="Y47" s="17">
         <v>10</v>
       </c>
-      <c r="Z47" s="20" t="s">
+      <c r="Z47" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA47" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB47" s="21" t="s">
+      <c r="AB47" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC47" s="17">
         <v>5</v>
       </c>
-      <c r="AD47" s="22" t="s">
+      <c r="AD47" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE47" s="20" t="s">
+      <c r="AE47" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>116</v>
       </c>
@@ -6000,7 +6008,7 @@
       <c r="C48" s="18">
         <v>44</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E48" s="18">
@@ -6066,26 +6074,26 @@
       <c r="Y48" s="17">
         <v>10</v>
       </c>
-      <c r="Z48" s="20" t="s">
+      <c r="Z48" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA48" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB48" s="21" t="s">
+      <c r="AB48" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC48" s="17">
         <v>5</v>
       </c>
-      <c r="AD48" s="22" t="s">
+      <c r="AD48" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE48" s="20" t="s">
+      <c r="AE48" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>117</v>
       </c>
@@ -6095,7 +6103,7 @@
       <c r="C49" s="18">
         <v>45</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E49" s="18">
@@ -6161,26 +6169,26 @@
       <c r="Y49" s="17">
         <v>10</v>
       </c>
-      <c r="Z49" s="20" t="s">
+      <c r="Z49" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA49" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB49" s="21" t="s">
+      <c r="AB49" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC49" s="17">
         <v>5</v>
       </c>
-      <c r="AD49" s="22" t="s">
+      <c r="AD49" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE49" s="20" t="s">
+      <c r="AE49" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>118</v>
       </c>
@@ -6190,7 +6198,7 @@
       <c r="C50" s="18">
         <v>46</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E50" s="18">
@@ -6256,26 +6264,26 @@
       <c r="Y50" s="17">
         <v>10</v>
       </c>
-      <c r="Z50" s="20" t="s">
+      <c r="Z50" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA50" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB50" s="21" t="s">
+      <c r="AB50" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC50" s="17">
         <v>5</v>
       </c>
-      <c r="AD50" s="22" t="s">
+      <c r="AD50" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE50" s="20" t="s">
+      <c r="AE50" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>119</v>
       </c>
@@ -6285,7 +6293,7 @@
       <c r="C51" s="18">
         <v>47</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E51" s="18">
@@ -6351,26 +6359,26 @@
       <c r="Y51" s="17">
         <v>10</v>
       </c>
-      <c r="Z51" s="20" t="s">
+      <c r="Z51" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA51" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB51" s="21" t="s">
+      <c r="AB51" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC51" s="17">
         <v>5</v>
       </c>
-      <c r="AD51" s="22" t="s">
+      <c r="AD51" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE51" s="20" t="s">
+      <c r="AE51" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>120</v>
       </c>
@@ -6380,7 +6388,7 @@
       <c r="C52" s="18">
         <v>48</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E52" s="18">
@@ -6446,26 +6454,26 @@
       <c r="Y52" s="17">
         <v>10</v>
       </c>
-      <c r="Z52" s="20" t="s">
+      <c r="Z52" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA52" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB52" s="21" t="s">
+      <c r="AB52" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC52" s="17">
         <v>5</v>
       </c>
-      <c r="AD52" s="22" t="s">
+      <c r="AD52" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE52" s="20" t="s">
+      <c r="AE52" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>121</v>
       </c>
@@ -6475,7 +6483,7 @@
       <c r="C53" s="18">
         <v>49</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E53" s="18">
@@ -6541,26 +6549,26 @@
       <c r="Y53" s="17">
         <v>10</v>
       </c>
-      <c r="Z53" s="20" t="s">
+      <c r="Z53" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA53" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB53" s="21" t="s">
+      <c r="AB53" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC53" s="17">
         <v>5</v>
       </c>
-      <c r="AD53" s="22" t="s">
+      <c r="AD53" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE53" s="20" t="s">
+      <c r="AE53" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>122</v>
       </c>
@@ -6570,7 +6578,7 @@
       <c r="C54" s="18">
         <v>50</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E54" s="18">
@@ -6636,26 +6644,26 @@
       <c r="Y54" s="17">
         <v>10</v>
       </c>
-      <c r="Z54" s="20" t="s">
+      <c r="Z54" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA54" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB54" s="21" t="s">
+      <c r="AB54" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC54" s="17">
         <v>5</v>
       </c>
-      <c r="AD54" s="22" t="s">
+      <c r="AD54" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE54" s="20" t="s">
+      <c r="AE54" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>123</v>
       </c>
@@ -6665,7 +6673,7 @@
       <c r="C55" s="18">
         <v>51</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E55" s="18">
@@ -6731,26 +6739,26 @@
       <c r="Y55" s="17">
         <v>10</v>
       </c>
-      <c r="Z55" s="20" t="s">
+      <c r="Z55" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA55" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB55" s="21" t="s">
+      <c r="AB55" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC55" s="17">
         <v>5</v>
       </c>
-      <c r="AD55" s="22" t="s">
+      <c r="AD55" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE55" s="20" t="s">
+      <c r="AE55" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
         <v>124</v>
       </c>
@@ -6760,7 +6768,7 @@
       <c r="C56" s="18">
         <v>52</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E56" s="18">
@@ -6826,26 +6834,26 @@
       <c r="Y56" s="17">
         <v>10</v>
       </c>
-      <c r="Z56" s="20" t="s">
+      <c r="Z56" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA56" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB56" s="21" t="s">
+      <c r="AB56" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC56" s="17">
         <v>5</v>
       </c>
-      <c r="AD56" s="22" t="s">
+      <c r="AD56" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE56" s="20" t="s">
+      <c r="AE56" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
         <v>125</v>
       </c>
@@ -6855,7 +6863,7 @@
       <c r="C57" s="18">
         <v>53</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E57" s="18">
@@ -6921,26 +6929,26 @@
       <c r="Y57" s="17">
         <v>10</v>
       </c>
-      <c r="Z57" s="20" t="s">
+      <c r="Z57" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA57" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB57" s="21" t="s">
+      <c r="AB57" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC57" s="17">
         <v>5</v>
       </c>
-      <c r="AD57" s="22" t="s">
+      <c r="AD57" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE57" s="20" t="s">
+      <c r="AE57" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
         <v>126</v>
       </c>
@@ -6950,7 +6958,7 @@
       <c r="C58" s="18">
         <v>54</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E58" s="18">
@@ -7016,26 +7024,26 @@
       <c r="Y58" s="17">
         <v>10</v>
       </c>
-      <c r="Z58" s="20" t="s">
+      <c r="Z58" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA58" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB58" s="21" t="s">
+      <c r="AB58" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC58" s="17">
         <v>5</v>
       </c>
-      <c r="AD58" s="22" t="s">
+      <c r="AD58" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE58" s="20" t="s">
+      <c r="AE58" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
         <v>127</v>
       </c>
@@ -7045,7 +7053,7 @@
       <c r="C59" s="18">
         <v>55</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E59" s="18">
@@ -7111,26 +7119,26 @@
       <c r="Y59" s="17">
         <v>10</v>
       </c>
-      <c r="Z59" s="20" t="s">
+      <c r="Z59" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA59" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB59" s="21" t="s">
+      <c r="AB59" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC59" s="17">
         <v>5</v>
       </c>
-      <c r="AD59" s="22" t="s">
+      <c r="AD59" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE59" s="20" t="s">
+      <c r="AE59" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
         <v>128</v>
       </c>
@@ -7140,7 +7148,7 @@
       <c r="C60" s="18">
         <v>56</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E60" s="18">
@@ -7206,26 +7214,26 @@
       <c r="Y60" s="17">
         <v>10</v>
       </c>
-      <c r="Z60" s="20" t="s">
+      <c r="Z60" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA60" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB60" s="21" t="s">
+      <c r="AB60" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC60" s="17">
         <v>5</v>
       </c>
-      <c r="AD60" s="22" t="s">
+      <c r="AD60" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE60" s="20" t="s">
+      <c r="AE60" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>129</v>
       </c>
@@ -7235,7 +7243,7 @@
       <c r="C61" s="18">
         <v>57</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E61" s="18">
@@ -7301,26 +7309,26 @@
       <c r="Y61" s="17">
         <v>10</v>
       </c>
-      <c r="Z61" s="20" t="s">
+      <c r="Z61" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA61" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB61" s="21" t="s">
+      <c r="AB61" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC61" s="17">
         <v>5</v>
       </c>
-      <c r="AD61" s="22" t="s">
+      <c r="AD61" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE61" s="20" t="s">
+      <c r="AE61" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
         <v>130</v>
       </c>
@@ -7330,7 +7338,7 @@
       <c r="C62" s="18">
         <v>58</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E62" s="18">
@@ -7396,26 +7404,26 @@
       <c r="Y62" s="17">
         <v>10</v>
       </c>
-      <c r="Z62" s="20" t="s">
+      <c r="Z62" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA62" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB62" s="21" t="s">
+      <c r="AB62" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC62" s="17">
         <v>5</v>
       </c>
-      <c r="AD62" s="22" t="s">
+      <c r="AD62" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE62" s="20" t="s">
+      <c r="AE62" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
         <v>131</v>
       </c>
@@ -7425,7 +7433,7 @@
       <c r="C63" s="18">
         <v>59</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E63" s="18">
@@ -7491,45 +7499,45 @@
       <c r="Y63" s="17">
         <v>10</v>
       </c>
-      <c r="Z63" s="20" t="s">
+      <c r="Z63" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA63" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB63" s="21" t="s">
+      <c r="AB63" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC63" s="17">
         <v>5</v>
       </c>
-      <c r="AD63" s="22" t="s">
+      <c r="AD63" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE63" s="20" t="s">
+      <c r="AE63" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:31" s="23" customFormat="1" ht="16.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="23" t="s">
+    <row r="64" spans="1:31" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="24">
+      <c r="C64" s="23">
         <v>60</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="24">
+      <c r="E64" s="23">
         <v>2688600</v>
       </c>
-      <c r="F64" s="23" t="s">
+      <c r="F64" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G64" s="24">
+      <c r="G64" s="23">
         <v>1</v>
       </c>
       <c r="H64" s="18">
@@ -7553,13 +7561,13 @@
       <c r="N64" s="17">
         <v>5</v>
       </c>
-      <c r="O64" s="25">
+      <c r="O64" s="24">
         <v>638</v>
       </c>
-      <c r="P64" s="23">
+      <c r="P64" s="22">
         <v>1268</v>
       </c>
-      <c r="Q64" s="23">
+      <c r="Q64" s="22">
         <v>118160</v>
       </c>
       <c r="R64" s="17">
@@ -7577,35 +7585,35 @@
       <c r="V64" s="17">
         <v>20000</v>
       </c>
-      <c r="W64" s="23">
+      <c r="W64" s="22">
         <v>0</v>
       </c>
-      <c r="X64" s="23">
+      <c r="X64" s="22">
         <v>600</v>
       </c>
       <c r="Y64" s="17">
         <v>10</v>
       </c>
-      <c r="Z64" s="26" t="s">
+      <c r="Z64" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AA64" s="23" t="s">
+      <c r="AA64" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AB64" s="27" t="s">
+      <c r="AB64" s="26" t="s">
         <v>71</v>
       </c>
       <c r="AC64" s="17">
         <v>5</v>
       </c>
-      <c r="AD64" s="22" t="s">
+      <c r="AD64" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE64" s="20" t="s">
+      <c r="AE64" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
         <v>133</v>
       </c>
@@ -7615,7 +7623,7 @@
       <c r="C65" s="18">
         <v>1</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E65" s="18">
@@ -7681,26 +7689,26 @@
       <c r="Y65" s="17">
         <v>10</v>
       </c>
-      <c r="Z65" s="20" t="s">
+      <c r="Z65" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA65" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB65" s="21" t="s">
+      <c r="AB65" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC65" s="17">
         <v>5</v>
       </c>
-      <c r="AD65" s="20" t="s">
+      <c r="AD65" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE65" s="20" t="s">
+      <c r="AE65" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
         <v>140</v>
       </c>
@@ -7710,7 +7718,7 @@
       <c r="C66" s="18">
         <v>2</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E66" s="18">
@@ -7776,26 +7784,26 @@
       <c r="Y66" s="17">
         <v>10</v>
       </c>
-      <c r="Z66" s="20" t="s">
+      <c r="Z66" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA66" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB66" s="21" t="s">
+      <c r="AB66" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC66" s="17">
         <v>5</v>
       </c>
-      <c r="AD66" s="20" t="s">
+      <c r="AD66" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE66" s="20" t="s">
+      <c r="AE66" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>142</v>
       </c>
@@ -7805,7 +7813,7 @@
       <c r="C67" s="18">
         <v>3</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E67" s="18">
@@ -7871,26 +7879,26 @@
       <c r="Y67" s="17">
         <v>10</v>
       </c>
-      <c r="Z67" s="20" t="s">
+      <c r="Z67" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA67" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB67" s="21" t="s">
+      <c r="AB67" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC67" s="17">
         <v>5</v>
       </c>
-      <c r="AD67" s="20" t="s">
+      <c r="AD67" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE67" s="20" t="s">
+      <c r="AE67" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
         <v>143</v>
       </c>
@@ -7900,7 +7908,7 @@
       <c r="C68" s="18">
         <v>4</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E68" s="18">
@@ -7966,26 +7974,26 @@
       <c r="Y68" s="17">
         <v>10</v>
       </c>
-      <c r="Z68" s="20" t="s">
+      <c r="Z68" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA68" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB68" s="21" t="s">
+      <c r="AB68" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC68" s="17">
         <v>5</v>
       </c>
-      <c r="AD68" s="20" t="s">
+      <c r="AD68" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE68" s="20" t="s">
+      <c r="AE68" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
         <v>144</v>
       </c>
@@ -7995,7 +8003,7 @@
       <c r="C69" s="18">
         <v>5</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E69" s="18">
@@ -8061,26 +8069,26 @@
       <c r="Y69" s="17">
         <v>10</v>
       </c>
-      <c r="Z69" s="20" t="s">
+      <c r="Z69" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA69" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB69" s="21" t="s">
+      <c r="AB69" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC69" s="17">
         <v>5</v>
       </c>
-      <c r="AD69" s="20" t="s">
+      <c r="AD69" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE69" s="20" t="s">
+      <c r="AE69" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
         <v>145</v>
       </c>
@@ -8090,7 +8098,7 @@
       <c r="C70" s="18">
         <v>6</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E70" s="18">
@@ -8156,26 +8164,26 @@
       <c r="Y70" s="17">
         <v>10</v>
       </c>
-      <c r="Z70" s="20" t="s">
+      <c r="Z70" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA70" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB70" s="21" t="s">
+      <c r="AB70" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC70" s="17">
         <v>5</v>
       </c>
-      <c r="AD70" s="20" t="s">
+      <c r="AD70" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE70" s="20" t="s">
+      <c r="AE70" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
         <v>146</v>
       </c>
@@ -8185,7 +8193,7 @@
       <c r="C71" s="18">
         <v>7</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E71" s="18">
@@ -8251,26 +8259,26 @@
       <c r="Y71" s="17">
         <v>10</v>
       </c>
-      <c r="Z71" s="20" t="s">
+      <c r="Z71" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA71" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB71" s="21" t="s">
+      <c r="AB71" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC71" s="17">
         <v>5</v>
       </c>
-      <c r="AD71" s="20" t="s">
+      <c r="AD71" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE71" s="20" t="s">
+      <c r="AE71" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>147</v>
       </c>
@@ -8280,7 +8288,7 @@
       <c r="C72" s="18">
         <v>8</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E72" s="18">
@@ -8346,26 +8354,26 @@
       <c r="Y72" s="17">
         <v>10</v>
       </c>
-      <c r="Z72" s="20" t="s">
+      <c r="Z72" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA72" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB72" s="21" t="s">
+      <c r="AB72" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC72" s="17">
         <v>5</v>
       </c>
-      <c r="AD72" s="20" t="s">
+      <c r="AD72" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE72" s="20" t="s">
+      <c r="AE72" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
         <v>148</v>
       </c>
@@ -8375,7 +8383,7 @@
       <c r="C73" s="18">
         <v>9</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E73" s="18">
@@ -8441,26 +8449,26 @@
       <c r="Y73" s="17">
         <v>10</v>
       </c>
-      <c r="Z73" s="20" t="s">
+      <c r="Z73" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA73" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB73" s="21" t="s">
+      <c r="AB73" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC73" s="17">
         <v>5</v>
       </c>
-      <c r="AD73" s="20" t="s">
+      <c r="AD73" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE73" s="20" t="s">
+      <c r="AE73" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
         <v>149</v>
       </c>
@@ -8470,7 +8478,7 @@
       <c r="C74" s="18">
         <v>10</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E74" s="18">
@@ -8536,26 +8544,26 @@
       <c r="Y74" s="17">
         <v>10</v>
       </c>
-      <c r="Z74" s="20" t="s">
+      <c r="Z74" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA74" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB74" s="21" t="s">
+      <c r="AB74" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC74" s="17">
         <v>5</v>
       </c>
-      <c r="AD74" s="20" t="s">
+      <c r="AD74" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE74" s="20" t="s">
+      <c r="AE74" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
         <v>150</v>
       </c>
@@ -8565,7 +8573,7 @@
       <c r="C75" s="18">
         <v>11</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E75" s="18">
@@ -8631,26 +8639,26 @@
       <c r="Y75" s="17">
         <v>10</v>
       </c>
-      <c r="Z75" s="20" t="s">
+      <c r="Z75" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA75" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB75" s="21" t="s">
+      <c r="AB75" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC75" s="17">
         <v>5</v>
       </c>
-      <c r="AD75" s="20" t="s">
+      <c r="AD75" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE75" s="20" t="s">
+      <c r="AE75" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
         <v>151</v>
       </c>
@@ -8660,7 +8668,7 @@
       <c r="C76" s="18">
         <v>12</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E76" s="18">
@@ -8726,26 +8734,26 @@
       <c r="Y76" s="17">
         <v>10</v>
       </c>
-      <c r="Z76" s="20" t="s">
+      <c r="Z76" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA76" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB76" s="21" t="s">
+      <c r="AB76" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC76" s="17">
         <v>5</v>
       </c>
-      <c r="AD76" s="20" t="s">
+      <c r="AD76" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE76" s="20" t="s">
+      <c r="AE76" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
         <v>152</v>
       </c>
@@ -8755,7 +8763,7 @@
       <c r="C77" s="18">
         <v>13</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E77" s="18">
@@ -8821,26 +8829,26 @@
       <c r="Y77" s="17">
         <v>10</v>
       </c>
-      <c r="Z77" s="20" t="s">
+      <c r="Z77" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA77" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB77" s="21" t="s">
+      <c r="AB77" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC77" s="17">
         <v>5</v>
       </c>
-      <c r="AD77" s="20" t="s">
+      <c r="AD77" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE77" s="20" t="s">
+      <c r="AE77" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
         <v>153</v>
       </c>
@@ -8850,7 +8858,7 @@
       <c r="C78" s="18">
         <v>14</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="D78" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E78" s="18">
@@ -8916,26 +8924,26 @@
       <c r="Y78" s="17">
         <v>10</v>
       </c>
-      <c r="Z78" s="20" t="s">
+      <c r="Z78" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA78" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB78" s="21" t="s">
+      <c r="AB78" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC78" s="17">
         <v>5</v>
       </c>
-      <c r="AD78" s="20" t="s">
+      <c r="AD78" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE78" s="20" t="s">
+      <c r="AE78" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
         <v>154</v>
       </c>
@@ -8945,7 +8953,7 @@
       <c r="C79" s="18">
         <v>15</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E79" s="18">
@@ -9011,26 +9019,26 @@
       <c r="Y79" s="17">
         <v>10</v>
       </c>
-      <c r="Z79" s="20" t="s">
+      <c r="Z79" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA79" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB79" s="21" t="s">
+      <c r="AB79" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC79" s="17">
         <v>5</v>
       </c>
-      <c r="AD79" s="20" t="s">
+      <c r="AD79" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE79" s="20" t="s">
+      <c r="AE79" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="17" t="s">
         <v>155</v>
       </c>
@@ -9040,7 +9048,7 @@
       <c r="C80" s="18">
         <v>16</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E80" s="18">
@@ -9106,26 +9114,26 @@
       <c r="Y80" s="17">
         <v>10</v>
       </c>
-      <c r="Z80" s="20" t="s">
+      <c r="Z80" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA80" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB80" s="21" t="s">
+      <c r="AB80" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC80" s="17">
         <v>5</v>
       </c>
-      <c r="AD80" s="20" t="s">
+      <c r="AD80" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE80" s="20" t="s">
+      <c r="AE80" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
         <v>156</v>
       </c>
@@ -9135,7 +9143,7 @@
       <c r="C81" s="18">
         <v>17</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E81" s="18">
@@ -9201,26 +9209,26 @@
       <c r="Y81" s="17">
         <v>10</v>
       </c>
-      <c r="Z81" s="20" t="s">
+      <c r="Z81" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA81" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB81" s="21" t="s">
+      <c r="AB81" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC81" s="17">
         <v>5</v>
       </c>
-      <c r="AD81" s="20" t="s">
+      <c r="AD81" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE81" s="20" t="s">
+      <c r="AE81" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="17" t="s">
         <v>157</v>
       </c>
@@ -9230,7 +9238,7 @@
       <c r="C82" s="18">
         <v>18</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="D82" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E82" s="18">
@@ -9296,26 +9304,26 @@
       <c r="Y82" s="17">
         <v>10</v>
       </c>
-      <c r="Z82" s="20" t="s">
+      <c r="Z82" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA82" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB82" s="21" t="s">
+      <c r="AB82" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC82" s="17">
         <v>5</v>
       </c>
-      <c r="AD82" s="20" t="s">
+      <c r="AD82" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE82" s="20" t="s">
+      <c r="AE82" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="17" t="s">
         <v>158</v>
       </c>
@@ -9325,7 +9333,7 @@
       <c r="C83" s="18">
         <v>19</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E83" s="18">
@@ -9391,26 +9399,26 @@
       <c r="Y83" s="17">
         <v>10</v>
       </c>
-      <c r="Z83" s="20" t="s">
+      <c r="Z83" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA83" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB83" s="21" t="s">
+      <c r="AB83" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC83" s="17">
         <v>5</v>
       </c>
-      <c r="AD83" s="20" t="s">
+      <c r="AD83" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE83" s="20" t="s">
+      <c r="AE83" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="17" t="s">
         <v>159</v>
       </c>
@@ -9420,7 +9428,7 @@
       <c r="C84" s="18">
         <v>20</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="D84" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E84" s="18">
@@ -9486,26 +9494,26 @@
       <c r="Y84" s="17">
         <v>10</v>
       </c>
-      <c r="Z84" s="20" t="s">
+      <c r="Z84" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA84" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB84" s="21" t="s">
+      <c r="AB84" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC84" s="17">
         <v>5</v>
       </c>
-      <c r="AD84" s="20" t="s">
+      <c r="AD84" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE84" s="20" t="s">
+      <c r="AE84" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="17" t="s">
         <v>160</v>
       </c>
@@ -9515,7 +9523,7 @@
       <c r="C85" s="18">
         <v>21</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E85" s="18">
@@ -9581,26 +9589,26 @@
       <c r="Y85" s="17">
         <v>10</v>
       </c>
-      <c r="Z85" s="20" t="s">
+      <c r="Z85" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA85" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB85" s="21" t="s">
+      <c r="AB85" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC85" s="17">
         <v>5</v>
       </c>
-      <c r="AD85" s="20" t="s">
+      <c r="AD85" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE85" s="20" t="s">
+      <c r="AE85" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="s">
         <v>161</v>
       </c>
@@ -9610,7 +9618,7 @@
       <c r="C86" s="18">
         <v>22</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E86" s="18">
@@ -9676,26 +9684,26 @@
       <c r="Y86" s="17">
         <v>10</v>
       </c>
-      <c r="Z86" s="20" t="s">
+      <c r="Z86" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA86" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB86" s="21" t="s">
+      <c r="AB86" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC86" s="17">
         <v>5</v>
       </c>
-      <c r="AD86" s="20" t="s">
+      <c r="AD86" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE86" s="20" t="s">
+      <c r="AE86" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="17" t="s">
         <v>162</v>
       </c>
@@ -9705,7 +9713,7 @@
       <c r="C87" s="18">
         <v>23</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E87" s="18">
@@ -9771,26 +9779,26 @@
       <c r="Y87" s="17">
         <v>10</v>
       </c>
-      <c r="Z87" s="20" t="s">
+      <c r="Z87" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA87" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB87" s="21" t="s">
+      <c r="AB87" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC87" s="17">
         <v>5</v>
       </c>
-      <c r="AD87" s="20" t="s">
+      <c r="AD87" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE87" s="20" t="s">
+      <c r="AE87" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
         <v>163</v>
       </c>
@@ -9800,7 +9808,7 @@
       <c r="C88" s="18">
         <v>24</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="D88" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E88" s="18">
@@ -9866,26 +9874,26 @@
       <c r="Y88" s="17">
         <v>10</v>
       </c>
-      <c r="Z88" s="20" t="s">
+      <c r="Z88" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA88" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB88" s="21" t="s">
+      <c r="AB88" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC88" s="17">
         <v>5</v>
       </c>
-      <c r="AD88" s="20" t="s">
+      <c r="AD88" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE88" s="20" t="s">
+      <c r="AE88" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="17" t="s">
         <v>164</v>
       </c>
@@ -9895,7 +9903,7 @@
       <c r="C89" s="18">
         <v>25</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E89" s="18">
@@ -9961,26 +9969,26 @@
       <c r="Y89" s="17">
         <v>10</v>
       </c>
-      <c r="Z89" s="20" t="s">
+      <c r="Z89" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA89" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB89" s="21" t="s">
+      <c r="AB89" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC89" s="17">
         <v>5</v>
       </c>
-      <c r="AD89" s="20" t="s">
+      <c r="AD89" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE89" s="20" t="s">
+      <c r="AE89" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="90" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="17" t="s">
         <v>165</v>
       </c>
@@ -9990,7 +9998,7 @@
       <c r="C90" s="18">
         <v>26</v>
       </c>
-      <c r="D90" s="19" t="s">
+      <c r="D90" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E90" s="18">
@@ -10056,26 +10064,26 @@
       <c r="Y90" s="17">
         <v>10</v>
       </c>
-      <c r="Z90" s="20" t="s">
+      <c r="Z90" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA90" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB90" s="21" t="s">
+      <c r="AB90" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC90" s="17">
         <v>5</v>
       </c>
-      <c r="AD90" s="20" t="s">
+      <c r="AD90" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE90" s="20" t="s">
+      <c r="AE90" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="17" t="s">
         <v>166</v>
       </c>
@@ -10085,7 +10093,7 @@
       <c r="C91" s="18">
         <v>27</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E91" s="18">
@@ -10151,26 +10159,26 @@
       <c r="Y91" s="17">
         <v>10</v>
       </c>
-      <c r="Z91" s="20" t="s">
+      <c r="Z91" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA91" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB91" s="21" t="s">
+      <c r="AB91" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC91" s="17">
         <v>5</v>
       </c>
-      <c r="AD91" s="20" t="s">
+      <c r="AD91" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE91" s="20" t="s">
+      <c r="AE91" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="17" t="s">
         <v>167</v>
       </c>
@@ -10180,7 +10188,7 @@
       <c r="C92" s="18">
         <v>28</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E92" s="18">
@@ -10246,26 +10254,26 @@
       <c r="Y92" s="17">
         <v>10</v>
       </c>
-      <c r="Z92" s="20" t="s">
+      <c r="Z92" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA92" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB92" s="21" t="s">
+      <c r="AB92" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC92" s="17">
         <v>5</v>
       </c>
-      <c r="AD92" s="20" t="s">
+      <c r="AD92" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE92" s="20" t="s">
+      <c r="AE92" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="17" t="s">
         <v>168</v>
       </c>
@@ -10275,7 +10283,7 @@
       <c r="C93" s="18">
         <v>29</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E93" s="18">
@@ -10341,26 +10349,26 @@
       <c r="Y93" s="17">
         <v>10</v>
       </c>
-      <c r="Z93" s="20" t="s">
+      <c r="Z93" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA93" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB93" s="21" t="s">
+      <c r="AB93" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC93" s="17">
         <v>5</v>
       </c>
-      <c r="AD93" s="20" t="s">
+      <c r="AD93" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE93" s="20" t="s">
+      <c r="AE93" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="17" t="s">
         <v>169</v>
       </c>
@@ -10370,7 +10378,7 @@
       <c r="C94" s="18">
         <v>30</v>
       </c>
-      <c r="D94" s="19" t="s">
+      <c r="D94" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E94" s="18">
@@ -10436,26 +10444,26 @@
       <c r="Y94" s="17">
         <v>10</v>
       </c>
-      <c r="Z94" s="20" t="s">
+      <c r="Z94" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA94" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB94" s="21" t="s">
+      <c r="AB94" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC94" s="17">
         <v>5</v>
       </c>
-      <c r="AD94" s="20" t="s">
+      <c r="AD94" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE94" s="20" t="s">
+      <c r="AE94" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="17" t="s">
         <v>170</v>
       </c>
@@ -10465,7 +10473,7 @@
       <c r="C95" s="18">
         <v>31</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E95" s="18">
@@ -10531,26 +10539,26 @@
       <c r="Y95" s="17">
         <v>10</v>
       </c>
-      <c r="Z95" s="20" t="s">
+      <c r="Z95" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA95" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB95" s="21" t="s">
+      <c r="AB95" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC95" s="17">
         <v>5</v>
       </c>
-      <c r="AD95" s="20" t="s">
+      <c r="AD95" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE95" s="20" t="s">
+      <c r="AE95" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
         <v>171</v>
       </c>
@@ -10560,7 +10568,7 @@
       <c r="C96" s="18">
         <v>32</v>
       </c>
-      <c r="D96" s="19" t="s">
+      <c r="D96" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E96" s="18">
@@ -10626,26 +10634,26 @@
       <c r="Y96" s="17">
         <v>10</v>
       </c>
-      <c r="Z96" s="20" t="s">
+      <c r="Z96" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA96" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB96" s="21" t="s">
+      <c r="AB96" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC96" s="17">
         <v>5</v>
       </c>
-      <c r="AD96" s="20" t="s">
+      <c r="AD96" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE96" s="20" t="s">
+      <c r="AE96" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
         <v>172</v>
       </c>
@@ -10655,7 +10663,7 @@
       <c r="C97" s="18">
         <v>33</v>
       </c>
-      <c r="D97" s="19" t="s">
+      <c r="D97" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E97" s="18">
@@ -10721,26 +10729,26 @@
       <c r="Y97" s="17">
         <v>10</v>
       </c>
-      <c r="Z97" s="20" t="s">
+      <c r="Z97" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA97" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB97" s="21" t="s">
+      <c r="AB97" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC97" s="17">
         <v>5</v>
       </c>
-      <c r="AD97" s="20" t="s">
+      <c r="AD97" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE97" s="20" t="s">
+      <c r="AE97" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="17" t="s">
         <v>173</v>
       </c>
@@ -10750,7 +10758,7 @@
       <c r="C98" s="18">
         <v>34</v>
       </c>
-      <c r="D98" s="19" t="s">
+      <c r="D98" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E98" s="18">
@@ -10816,26 +10824,26 @@
       <c r="Y98" s="17">
         <v>10</v>
       </c>
-      <c r="Z98" s="20" t="s">
+      <c r="Z98" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA98" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB98" s="21" t="s">
+      <c r="AB98" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC98" s="17">
         <v>5</v>
       </c>
-      <c r="AD98" s="20" t="s">
+      <c r="AD98" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE98" s="20" t="s">
+      <c r="AE98" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="s">
         <v>174</v>
       </c>
@@ -10845,7 +10853,7 @@
       <c r="C99" s="18">
         <v>35</v>
       </c>
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E99" s="18">
@@ -10911,26 +10919,26 @@
       <c r="Y99" s="17">
         <v>10</v>
       </c>
-      <c r="Z99" s="20" t="s">
+      <c r="Z99" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA99" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB99" s="21" t="s">
+      <c r="AB99" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC99" s="17">
         <v>5</v>
       </c>
-      <c r="AD99" s="20" t="s">
+      <c r="AD99" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE99" s="20" t="s">
+      <c r="AE99" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="100" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
         <v>175</v>
       </c>
@@ -10940,7 +10948,7 @@
       <c r="C100" s="18">
         <v>36</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E100" s="18">
@@ -11006,26 +11014,26 @@
       <c r="Y100" s="17">
         <v>10</v>
       </c>
-      <c r="Z100" s="20" t="s">
+      <c r="Z100" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA100" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB100" s="21" t="s">
+      <c r="AB100" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC100" s="17">
         <v>5</v>
       </c>
-      <c r="AD100" s="20" t="s">
+      <c r="AD100" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE100" s="20" t="s">
+      <c r="AE100" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
         <v>176</v>
       </c>
@@ -11035,7 +11043,7 @@
       <c r="C101" s="18">
         <v>37</v>
       </c>
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E101" s="18">
@@ -11101,26 +11109,26 @@
       <c r="Y101" s="17">
         <v>10</v>
       </c>
-      <c r="Z101" s="20" t="s">
+      <c r="Z101" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA101" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB101" s="21" t="s">
+      <c r="AB101" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC101" s="17">
         <v>5</v>
       </c>
-      <c r="AD101" s="20" t="s">
+      <c r="AD101" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE101" s="20" t="s">
+      <c r="AE101" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
         <v>177</v>
       </c>
@@ -11130,7 +11138,7 @@
       <c r="C102" s="18">
         <v>38</v>
       </c>
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E102" s="18">
@@ -11196,26 +11204,26 @@
       <c r="Y102" s="17">
         <v>10</v>
       </c>
-      <c r="Z102" s="20" t="s">
+      <c r="Z102" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA102" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB102" s="21" t="s">
+      <c r="AB102" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC102" s="17">
         <v>5</v>
       </c>
-      <c r="AD102" s="20" t="s">
+      <c r="AD102" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE102" s="20" t="s">
+      <c r="AE102" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
         <v>178</v>
       </c>
@@ -11225,7 +11233,7 @@
       <c r="C103" s="18">
         <v>39</v>
       </c>
-      <c r="D103" s="19" t="s">
+      <c r="D103" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E103" s="18">
@@ -11291,26 +11299,26 @@
       <c r="Y103" s="17">
         <v>10</v>
       </c>
-      <c r="Z103" s="20" t="s">
+      <c r="Z103" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA103" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB103" s="21" t="s">
+      <c r="AB103" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC103" s="17">
         <v>5</v>
       </c>
-      <c r="AD103" s="20" t="s">
+      <c r="AD103" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE103" s="20" t="s">
+      <c r="AE103" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="s">
         <v>179</v>
       </c>
@@ -11320,7 +11328,7 @@
       <c r="C104" s="18">
         <v>40</v>
       </c>
-      <c r="D104" s="19" t="s">
+      <c r="D104" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E104" s="18">
@@ -11386,26 +11394,26 @@
       <c r="Y104" s="17">
         <v>10</v>
       </c>
-      <c r="Z104" s="20" t="s">
+      <c r="Z104" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA104" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB104" s="21" t="s">
+      <c r="AB104" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC104" s="17">
         <v>5</v>
       </c>
-      <c r="AD104" s="20" t="s">
+      <c r="AD104" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE104" s="20" t="s">
+      <c r="AE104" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
         <v>180</v>
       </c>
@@ -11415,7 +11423,7 @@
       <c r="C105" s="18">
         <v>41</v>
       </c>
-      <c r="D105" s="19" t="s">
+      <c r="D105" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E105" s="18">
@@ -11481,26 +11489,26 @@
       <c r="Y105" s="17">
         <v>10</v>
       </c>
-      <c r="Z105" s="20" t="s">
+      <c r="Z105" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA105" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB105" s="21" t="s">
+      <c r="AB105" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC105" s="17">
         <v>5</v>
       </c>
-      <c r="AD105" s="20" t="s">
+      <c r="AD105" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE105" s="20" t="s">
+      <c r="AE105" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
         <v>181</v>
       </c>
@@ -11510,7 +11518,7 @@
       <c r="C106" s="18">
         <v>42</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E106" s="18">
@@ -11576,26 +11584,26 @@
       <c r="Y106" s="17">
         <v>10</v>
       </c>
-      <c r="Z106" s="20" t="s">
+      <c r="Z106" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA106" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB106" s="21" t="s">
+      <c r="AB106" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC106" s="17">
         <v>5</v>
       </c>
-      <c r="AD106" s="20" t="s">
+      <c r="AD106" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE106" s="20" t="s">
+      <c r="AE106" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="107" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
         <v>182</v>
       </c>
@@ -11605,7 +11613,7 @@
       <c r="C107" s="18">
         <v>43</v>
       </c>
-      <c r="D107" s="19" t="s">
+      <c r="D107" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E107" s="18">
@@ -11671,26 +11679,26 @@
       <c r="Y107" s="17">
         <v>10</v>
       </c>
-      <c r="Z107" s="20" t="s">
+      <c r="Z107" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA107" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB107" s="21" t="s">
+      <c r="AB107" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC107" s="17">
         <v>5</v>
       </c>
-      <c r="AD107" s="20" t="s">
+      <c r="AD107" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE107" s="20" t="s">
+      <c r="AE107" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
         <v>183</v>
       </c>
@@ -11700,7 +11708,7 @@
       <c r="C108" s="18">
         <v>44</v>
       </c>
-      <c r="D108" s="19" t="s">
+      <c r="D108" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E108" s="18">
@@ -11766,26 +11774,26 @@
       <c r="Y108" s="17">
         <v>10</v>
       </c>
-      <c r="Z108" s="20" t="s">
+      <c r="Z108" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA108" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB108" s="21" t="s">
+      <c r="AB108" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC108" s="17">
         <v>5</v>
       </c>
-      <c r="AD108" s="20" t="s">
+      <c r="AD108" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE108" s="20" t="s">
+      <c r="AE108" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="109" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="17" t="s">
         <v>184</v>
       </c>
@@ -11795,7 +11803,7 @@
       <c r="C109" s="18">
         <v>45</v>
       </c>
-      <c r="D109" s="19" t="s">
+      <c r="D109" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E109" s="18">
@@ -11861,26 +11869,26 @@
       <c r="Y109" s="17">
         <v>10</v>
       </c>
-      <c r="Z109" s="20" t="s">
+      <c r="Z109" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA109" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB109" s="21" t="s">
+      <c r="AB109" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC109" s="17">
         <v>5</v>
       </c>
-      <c r="AD109" s="20" t="s">
+      <c r="AD109" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE109" s="20" t="s">
+      <c r="AE109" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="17" t="s">
         <v>185</v>
       </c>
@@ -11890,7 +11898,7 @@
       <c r="C110" s="18">
         <v>46</v>
       </c>
-      <c r="D110" s="19" t="s">
+      <c r="D110" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E110" s="18">
@@ -11956,26 +11964,26 @@
       <c r="Y110" s="17">
         <v>10</v>
       </c>
-      <c r="Z110" s="20" t="s">
+      <c r="Z110" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA110" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB110" s="21" t="s">
+      <c r="AB110" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC110" s="17">
         <v>5</v>
       </c>
-      <c r="AD110" s="20" t="s">
+      <c r="AD110" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE110" s="20" t="s">
+      <c r="AE110" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="111" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
         <v>186</v>
       </c>
@@ -11985,7 +11993,7 @@
       <c r="C111" s="18">
         <v>47</v>
       </c>
-      <c r="D111" s="19" t="s">
+      <c r="D111" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E111" s="18">
@@ -12051,26 +12059,26 @@
       <c r="Y111" s="17">
         <v>10</v>
       </c>
-      <c r="Z111" s="20" t="s">
+      <c r="Z111" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA111" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB111" s="21" t="s">
+      <c r="AB111" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC111" s="17">
         <v>5</v>
       </c>
-      <c r="AD111" s="20" t="s">
+      <c r="AD111" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE111" s="20" t="s">
+      <c r="AE111" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="112" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
         <v>187</v>
       </c>
@@ -12080,7 +12088,7 @@
       <c r="C112" s="18">
         <v>48</v>
       </c>
-      <c r="D112" s="19" t="s">
+      <c r="D112" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E112" s="18">
@@ -12146,26 +12154,26 @@
       <c r="Y112" s="17">
         <v>10</v>
       </c>
-      <c r="Z112" s="20" t="s">
+      <c r="Z112" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA112" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB112" s="21" t="s">
+      <c r="AB112" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC112" s="17">
         <v>5</v>
       </c>
-      <c r="AD112" s="20" t="s">
+      <c r="AD112" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE112" s="20" t="s">
+      <c r="AE112" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="113" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
         <v>188</v>
       </c>
@@ -12175,7 +12183,7 @@
       <c r="C113" s="18">
         <v>49</v>
       </c>
-      <c r="D113" s="19" t="s">
+      <c r="D113" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E113" s="18">
@@ -12241,26 +12249,26 @@
       <c r="Y113" s="17">
         <v>10</v>
       </c>
-      <c r="Z113" s="20" t="s">
+      <c r="Z113" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA113" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB113" s="21" t="s">
+      <c r="AB113" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC113" s="17">
         <v>5</v>
       </c>
-      <c r="AD113" s="20" t="s">
+      <c r="AD113" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE113" s="20" t="s">
+      <c r="AE113" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="114" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
         <v>189</v>
       </c>
@@ -12270,7 +12278,7 @@
       <c r="C114" s="18">
         <v>50</v>
       </c>
-      <c r="D114" s="19" t="s">
+      <c r="D114" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E114" s="18">
@@ -12336,26 +12344,26 @@
       <c r="Y114" s="17">
         <v>10</v>
       </c>
-      <c r="Z114" s="20" t="s">
+      <c r="Z114" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA114" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB114" s="21" t="s">
+      <c r="AB114" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC114" s="17">
         <v>5</v>
       </c>
-      <c r="AD114" s="20" t="s">
+      <c r="AD114" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE114" s="20" t="s">
+      <c r="AE114" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="115" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
         <v>190</v>
       </c>
@@ -12365,7 +12373,7 @@
       <c r="C115" s="18">
         <v>51</v>
       </c>
-      <c r="D115" s="19" t="s">
+      <c r="D115" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E115" s="18">
@@ -12431,26 +12439,26 @@
       <c r="Y115" s="17">
         <v>10</v>
       </c>
-      <c r="Z115" s="20" t="s">
+      <c r="Z115" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA115" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB115" s="21" t="s">
+      <c r="AB115" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC115" s="17">
         <v>5</v>
       </c>
-      <c r="AD115" s="20" t="s">
+      <c r="AD115" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE115" s="20" t="s">
+      <c r="AE115" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="116" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
         <v>191</v>
       </c>
@@ -12460,7 +12468,7 @@
       <c r="C116" s="18">
         <v>52</v>
       </c>
-      <c r="D116" s="19" t="s">
+      <c r="D116" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E116" s="18">
@@ -12526,26 +12534,26 @@
       <c r="Y116" s="17">
         <v>10</v>
       </c>
-      <c r="Z116" s="20" t="s">
+      <c r="Z116" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA116" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB116" s="21" t="s">
+      <c r="AB116" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC116" s="17">
         <v>5</v>
       </c>
-      <c r="AD116" s="20" t="s">
+      <c r="AD116" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE116" s="20" t="s">
+      <c r="AE116" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="117" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
         <v>192</v>
       </c>
@@ -12555,7 +12563,7 @@
       <c r="C117" s="18">
         <v>53</v>
       </c>
-      <c r="D117" s="19" t="s">
+      <c r="D117" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E117" s="18">
@@ -12621,26 +12629,26 @@
       <c r="Y117" s="17">
         <v>10</v>
       </c>
-      <c r="Z117" s="20" t="s">
+      <c r="Z117" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA117" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB117" s="21" t="s">
+      <c r="AB117" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC117" s="17">
         <v>5</v>
       </c>
-      <c r="AD117" s="20" t="s">
+      <c r="AD117" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE117" s="20" t="s">
+      <c r="AE117" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="118" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
         <v>193</v>
       </c>
@@ -12650,7 +12658,7 @@
       <c r="C118" s="18">
         <v>54</v>
       </c>
-      <c r="D118" s="19" t="s">
+      <c r="D118" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E118" s="18">
@@ -12716,26 +12724,26 @@
       <c r="Y118" s="17">
         <v>10</v>
       </c>
-      <c r="Z118" s="20" t="s">
+      <c r="Z118" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA118" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB118" s="21" t="s">
+      <c r="AB118" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC118" s="17">
         <v>5</v>
       </c>
-      <c r="AD118" s="20" t="s">
+      <c r="AD118" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE118" s="20" t="s">
+      <c r="AE118" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="119" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
         <v>194</v>
       </c>
@@ -12745,7 +12753,7 @@
       <c r="C119" s="18">
         <v>55</v>
       </c>
-      <c r="D119" s="19" t="s">
+      <c r="D119" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E119" s="18">
@@ -12811,26 +12819,26 @@
       <c r="Y119" s="17">
         <v>10</v>
       </c>
-      <c r="Z119" s="20" t="s">
+      <c r="Z119" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA119" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB119" s="21" t="s">
+      <c r="AB119" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC119" s="17">
         <v>5</v>
       </c>
-      <c r="AD119" s="20" t="s">
+      <c r="AD119" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE119" s="20" t="s">
+      <c r="AE119" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>195</v>
       </c>
@@ -12840,7 +12848,7 @@
       <c r="C120" s="18">
         <v>56</v>
       </c>
-      <c r="D120" s="19" t="s">
+      <c r="D120" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E120" s="18">
@@ -12906,26 +12914,26 @@
       <c r="Y120" s="17">
         <v>10</v>
       </c>
-      <c r="Z120" s="20" t="s">
+      <c r="Z120" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA120" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB120" s="21" t="s">
+      <c r="AB120" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC120" s="17">
         <v>5</v>
       </c>
-      <c r="AD120" s="20" t="s">
+      <c r="AD120" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE120" s="20" t="s">
+      <c r="AE120" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="121" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
         <v>196</v>
       </c>
@@ -12935,7 +12943,7 @@
       <c r="C121" s="18">
         <v>57</v>
       </c>
-      <c r="D121" s="19" t="s">
+      <c r="D121" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E121" s="18">
@@ -13001,26 +13009,26 @@
       <c r="Y121" s="17">
         <v>10</v>
       </c>
-      <c r="Z121" s="20" t="s">
+      <c r="Z121" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA121" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB121" s="21" t="s">
+      <c r="AB121" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC121" s="17">
         <v>5</v>
       </c>
-      <c r="AD121" s="20" t="s">
+      <c r="AD121" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE121" s="20" t="s">
+      <c r="AE121" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="122" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
         <v>197</v>
       </c>
@@ -13030,7 +13038,7 @@
       <c r="C122" s="18">
         <v>58</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E122" s="18">
@@ -13096,26 +13104,26 @@
       <c r="Y122" s="17">
         <v>10</v>
       </c>
-      <c r="Z122" s="20" t="s">
+      <c r="Z122" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA122" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB122" s="21" t="s">
+      <c r="AB122" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC122" s="17">
         <v>5</v>
       </c>
-      <c r="AD122" s="20" t="s">
+      <c r="AD122" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE122" s="20" t="s">
+      <c r="AE122" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="123" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
         <v>198</v>
       </c>
@@ -13125,7 +13133,7 @@
       <c r="C123" s="18">
         <v>59</v>
       </c>
-      <c r="D123" s="19" t="s">
+      <c r="D123" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E123" s="18">
@@ -13191,45 +13199,45 @@
       <c r="Y123" s="17">
         <v>10</v>
       </c>
-      <c r="Z123" s="20" t="s">
+      <c r="Z123" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA123" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB123" s="21" t="s">
+      <c r="AB123" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC123" s="17">
         <v>5</v>
       </c>
-      <c r="AD123" s="20" t="s">
+      <c r="AD123" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE123" s="20" t="s">
+      <c r="AE123" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:31" s="23" customFormat="1" ht="16.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="23" t="s">
+    <row r="124" spans="1:31" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="B124" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C124" s="24">
+      <c r="C124" s="23">
         <v>60</v>
       </c>
-      <c r="D124" s="19" t="s">
+      <c r="D124" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E124" s="24">
+      <c r="E124" s="23">
         <v>2688600</v>
       </c>
-      <c r="F124" s="23" t="s">
+      <c r="F124" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G124" s="24">
+      <c r="G124" s="23">
         <v>2</v>
       </c>
       <c r="H124" s="18">
@@ -13253,13 +13261,13 @@
       <c r="N124" s="17">
         <v>5</v>
       </c>
-      <c r="O124" s="25">
+      <c r="O124" s="24">
         <v>851</v>
       </c>
-      <c r="P124" s="23">
+      <c r="P124" s="22">
         <v>634</v>
       </c>
-      <c r="Q124" s="23">
+      <c r="Q124" s="22">
         <v>84400</v>
       </c>
       <c r="R124" s="17">
@@ -13277,35 +13285,35 @@
       <c r="V124" s="17">
         <v>20000</v>
       </c>
-      <c r="W124" s="23">
+      <c r="W124" s="22">
         <v>0</v>
       </c>
-      <c r="X124" s="23">
+      <c r="X124" s="22">
         <v>500</v>
       </c>
       <c r="Y124" s="17">
         <v>10</v>
       </c>
-      <c r="Z124" s="26" t="s">
+      <c r="Z124" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AA124" s="23" t="s">
+      <c r="AA124" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AB124" s="27" t="s">
+      <c r="AB124" s="26" t="s">
         <v>71</v>
       </c>
       <c r="AC124" s="17">
         <v>5</v>
       </c>
-      <c r="AD124" s="20" t="s">
+      <c r="AD124" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE124" s="26" t="s">
+      <c r="AE124" s="25" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="125" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
         <v>200</v>
       </c>
@@ -13315,7 +13323,7 @@
       <c r="C125" s="18">
         <v>1</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D125" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E125" s="18">
@@ -13381,26 +13389,26 @@
       <c r="Y125" s="17">
         <v>10</v>
       </c>
-      <c r="Z125" s="20" t="s">
+      <c r="Z125" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA125" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB125" s="21" t="s">
+      <c r="AB125" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC125" s="17">
         <v>5</v>
       </c>
-      <c r="AD125" s="20" t="s">
+      <c r="AD125" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE125" s="20" t="s">
+      <c r="AE125" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="126" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
         <v>206</v>
       </c>
@@ -13410,7 +13418,7 @@
       <c r="C126" s="18">
         <v>2</v>
       </c>
-      <c r="D126" s="19" t="s">
+      <c r="D126" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E126" s="18">
@@ -13476,26 +13484,26 @@
       <c r="Y126" s="17">
         <v>10</v>
       </c>
-      <c r="Z126" s="20" t="s">
+      <c r="Z126" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA126" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB126" s="21" t="s">
+      <c r="AB126" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC126" s="17">
         <v>5</v>
       </c>
-      <c r="AD126" s="20" t="s">
+      <c r="AD126" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE126" s="20" t="s">
+      <c r="AE126" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="127" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
         <v>207</v>
       </c>
@@ -13505,7 +13513,7 @@
       <c r="C127" s="18">
         <v>3</v>
       </c>
-      <c r="D127" s="19" t="s">
+      <c r="D127" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E127" s="18">
@@ -13571,26 +13579,26 @@
       <c r="Y127" s="17">
         <v>10</v>
       </c>
-      <c r="Z127" s="20" t="s">
+      <c r="Z127" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA127" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB127" s="21" t="s">
+      <c r="AB127" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC127" s="17">
         <v>5</v>
       </c>
-      <c r="AD127" s="20" t="s">
+      <c r="AD127" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE127" s="20" t="s">
+      <c r="AE127" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="128" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
         <v>208</v>
       </c>
@@ -13600,7 +13608,7 @@
       <c r="C128" s="18">
         <v>4</v>
       </c>
-      <c r="D128" s="19" t="s">
+      <c r="D128" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E128" s="18">
@@ -13666,26 +13674,26 @@
       <c r="Y128" s="17">
         <v>10</v>
       </c>
-      <c r="Z128" s="20" t="s">
+      <c r="Z128" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA128" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB128" s="21" t="s">
+      <c r="AB128" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC128" s="17">
         <v>5</v>
       </c>
-      <c r="AD128" s="20" t="s">
+      <c r="AD128" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE128" s="20" t="s">
+      <c r="AE128" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="129" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
         <v>209</v>
       </c>
@@ -13695,7 +13703,7 @@
       <c r="C129" s="18">
         <v>5</v>
       </c>
-      <c r="D129" s="19" t="s">
+      <c r="D129" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E129" s="18">
@@ -13761,26 +13769,26 @@
       <c r="Y129" s="17">
         <v>10</v>
       </c>
-      <c r="Z129" s="20" t="s">
+      <c r="Z129" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA129" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB129" s="21" t="s">
+      <c r="AB129" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC129" s="17">
         <v>5</v>
       </c>
-      <c r="AD129" s="20" t="s">
+      <c r="AD129" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE129" s="20" t="s">
+      <c r="AE129" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="130" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
         <v>210</v>
       </c>
@@ -13790,7 +13798,7 @@
       <c r="C130" s="18">
         <v>6</v>
       </c>
-      <c r="D130" s="19" t="s">
+      <c r="D130" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E130" s="18">
@@ -13856,26 +13864,26 @@
       <c r="Y130" s="17">
         <v>10</v>
       </c>
-      <c r="Z130" s="20" t="s">
+      <c r="Z130" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA130" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB130" s="21" t="s">
+      <c r="AB130" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC130" s="17">
         <v>5</v>
       </c>
-      <c r="AD130" s="20" t="s">
+      <c r="AD130" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE130" s="20" t="s">
+      <c r="AE130" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="131" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
         <v>211</v>
       </c>
@@ -13885,7 +13893,7 @@
       <c r="C131" s="18">
         <v>7</v>
       </c>
-      <c r="D131" s="19" t="s">
+      <c r="D131" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E131" s="18">
@@ -13951,26 +13959,26 @@
       <c r="Y131" s="17">
         <v>10</v>
       </c>
-      <c r="Z131" s="20" t="s">
+      <c r="Z131" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA131" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB131" s="21" t="s">
+      <c r="AB131" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC131" s="17">
         <v>5</v>
       </c>
-      <c r="AD131" s="20" t="s">
+      <c r="AD131" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE131" s="20" t="s">
+      <c r="AE131" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="132" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
         <v>212</v>
       </c>
@@ -13980,7 +13988,7 @@
       <c r="C132" s="18">
         <v>8</v>
       </c>
-      <c r="D132" s="19" t="s">
+      <c r="D132" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E132" s="18">
@@ -14046,26 +14054,26 @@
       <c r="Y132" s="17">
         <v>10</v>
       </c>
-      <c r="Z132" s="20" t="s">
+      <c r="Z132" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA132" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB132" s="21" t="s">
+      <c r="AB132" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC132" s="17">
         <v>5</v>
       </c>
-      <c r="AD132" s="20" t="s">
+      <c r="AD132" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE132" s="20" t="s">
+      <c r="AE132" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="133" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
         <v>213</v>
       </c>
@@ -14075,7 +14083,7 @@
       <c r="C133" s="18">
         <v>9</v>
       </c>
-      <c r="D133" s="19" t="s">
+      <c r="D133" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E133" s="18">
@@ -14141,26 +14149,26 @@
       <c r="Y133" s="17">
         <v>10</v>
       </c>
-      <c r="Z133" s="20" t="s">
+      <c r="Z133" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA133" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB133" s="21" t="s">
+      <c r="AB133" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC133" s="17">
         <v>5</v>
       </c>
-      <c r="AD133" s="20" t="s">
+      <c r="AD133" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE133" s="20" t="s">
+      <c r="AE133" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="134" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
         <v>214</v>
       </c>
@@ -14170,7 +14178,7 @@
       <c r="C134" s="18">
         <v>10</v>
       </c>
-      <c r="D134" s="19" t="s">
+      <c r="D134" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E134" s="18">
@@ -14236,26 +14244,26 @@
       <c r="Y134" s="17">
         <v>10</v>
       </c>
-      <c r="Z134" s="20" t="s">
+      <c r="Z134" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA134" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB134" s="21" t="s">
+      <c r="AB134" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC134" s="17">
         <v>5</v>
       </c>
-      <c r="AD134" s="20" t="s">
+      <c r="AD134" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE134" s="20" t="s">
+      <c r="AE134" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="135" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="17" t="s">
         <v>215</v>
       </c>
@@ -14265,7 +14273,7 @@
       <c r="C135" s="18">
         <v>11</v>
       </c>
-      <c r="D135" s="19" t="s">
+      <c r="D135" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E135" s="18">
@@ -14331,26 +14339,26 @@
       <c r="Y135" s="17">
         <v>10</v>
       </c>
-      <c r="Z135" s="20" t="s">
+      <c r="Z135" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA135" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB135" s="21" t="s">
+      <c r="AB135" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC135" s="17">
         <v>5</v>
       </c>
-      <c r="AD135" s="20" t="s">
+      <c r="AD135" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE135" s="20" t="s">
+      <c r="AE135" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="136" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="s">
         <v>216</v>
       </c>
@@ -14360,7 +14368,7 @@
       <c r="C136" s="18">
         <v>12</v>
       </c>
-      <c r="D136" s="19" t="s">
+      <c r="D136" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E136" s="18">
@@ -14426,26 +14434,26 @@
       <c r="Y136" s="17">
         <v>10</v>
       </c>
-      <c r="Z136" s="20" t="s">
+      <c r="Z136" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA136" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB136" s="21" t="s">
+      <c r="AB136" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC136" s="17">
         <v>5</v>
       </c>
-      <c r="AD136" s="20" t="s">
+      <c r="AD136" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE136" s="20" t="s">
+      <c r="AE136" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="137" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="17" t="s">
         <v>217</v>
       </c>
@@ -14455,7 +14463,7 @@
       <c r="C137" s="18">
         <v>13</v>
       </c>
-      <c r="D137" s="19" t="s">
+      <c r="D137" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E137" s="18">
@@ -14521,26 +14529,26 @@
       <c r="Y137" s="17">
         <v>10</v>
       </c>
-      <c r="Z137" s="20" t="s">
+      <c r="Z137" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA137" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB137" s="21" t="s">
+      <c r="AB137" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC137" s="17">
         <v>5</v>
       </c>
-      <c r="AD137" s="20" t="s">
+      <c r="AD137" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE137" s="20" t="s">
+      <c r="AE137" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="138" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
         <v>218</v>
       </c>
@@ -14550,7 +14558,7 @@
       <c r="C138" s="18">
         <v>14</v>
       </c>
-      <c r="D138" s="19" t="s">
+      <c r="D138" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E138" s="18">
@@ -14616,26 +14624,26 @@
       <c r="Y138" s="17">
         <v>10</v>
       </c>
-      <c r="Z138" s="20" t="s">
+      <c r="Z138" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA138" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB138" s="21" t="s">
+      <c r="AB138" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC138" s="17">
         <v>5</v>
       </c>
-      <c r="AD138" s="20" t="s">
+      <c r="AD138" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE138" s="20" t="s">
+      <c r="AE138" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="139" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="17" t="s">
         <v>219</v>
       </c>
@@ -14645,7 +14653,7 @@
       <c r="C139" s="18">
         <v>15</v>
       </c>
-      <c r="D139" s="19" t="s">
+      <c r="D139" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E139" s="18">
@@ -14711,26 +14719,26 @@
       <c r="Y139" s="17">
         <v>10</v>
       </c>
-      <c r="Z139" s="20" t="s">
+      <c r="Z139" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA139" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB139" s="21" t="s">
+      <c r="AB139" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC139" s="17">
         <v>5</v>
       </c>
-      <c r="AD139" s="20" t="s">
+      <c r="AD139" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE139" s="20" t="s">
+      <c r="AE139" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="140" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="17" t="s">
         <v>220</v>
       </c>
@@ -14740,7 +14748,7 @@
       <c r="C140" s="18">
         <v>16</v>
       </c>
-      <c r="D140" s="19" t="s">
+      <c r="D140" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E140" s="18">
@@ -14806,26 +14814,26 @@
       <c r="Y140" s="17">
         <v>10</v>
       </c>
-      <c r="Z140" s="20" t="s">
+      <c r="Z140" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA140" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB140" s="21" t="s">
+      <c r="AB140" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC140" s="17">
         <v>5</v>
       </c>
-      <c r="AD140" s="20" t="s">
+      <c r="AD140" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE140" s="20" t="s">
+      <c r="AE140" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="141" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="17" t="s">
         <v>221</v>
       </c>
@@ -14835,7 +14843,7 @@
       <c r="C141" s="18">
         <v>17</v>
       </c>
-      <c r="D141" s="19" t="s">
+      <c r="D141" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E141" s="18">
@@ -14901,26 +14909,26 @@
       <c r="Y141" s="17">
         <v>10</v>
       </c>
-      <c r="Z141" s="20" t="s">
+      <c r="Z141" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA141" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB141" s="21" t="s">
+      <c r="AB141" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC141" s="17">
         <v>5</v>
       </c>
-      <c r="AD141" s="20" t="s">
+      <c r="AD141" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE141" s="20" t="s">
+      <c r="AE141" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="142" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="17" t="s">
         <v>222</v>
       </c>
@@ -14930,7 +14938,7 @@
       <c r="C142" s="18">
         <v>18</v>
       </c>
-      <c r="D142" s="19" t="s">
+      <c r="D142" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E142" s="18">
@@ -14996,26 +15004,26 @@
       <c r="Y142" s="17">
         <v>10</v>
       </c>
-      <c r="Z142" s="20" t="s">
+      <c r="Z142" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA142" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB142" s="21" t="s">
+      <c r="AB142" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC142" s="17">
         <v>5</v>
       </c>
-      <c r="AD142" s="20" t="s">
+      <c r="AD142" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE142" s="20" t="s">
+      <c r="AE142" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="143" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="17" t="s">
         <v>223</v>
       </c>
@@ -15025,7 +15033,7 @@
       <c r="C143" s="18">
         <v>19</v>
       </c>
-      <c r="D143" s="19" t="s">
+      <c r="D143" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E143" s="18">
@@ -15091,26 +15099,26 @@
       <c r="Y143" s="17">
         <v>10</v>
       </c>
-      <c r="Z143" s="20" t="s">
+      <c r="Z143" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA143" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB143" s="21" t="s">
+      <c r="AB143" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC143" s="17">
         <v>5</v>
       </c>
-      <c r="AD143" s="20" t="s">
+      <c r="AD143" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE143" s="20" t="s">
+      <c r="AE143" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="144" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="17" t="s">
         <v>224</v>
       </c>
@@ -15120,7 +15128,7 @@
       <c r="C144" s="18">
         <v>20</v>
       </c>
-      <c r="D144" s="19" t="s">
+      <c r="D144" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E144" s="18">
@@ -15186,26 +15194,26 @@
       <c r="Y144" s="17">
         <v>10</v>
       </c>
-      <c r="Z144" s="20" t="s">
+      <c r="Z144" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA144" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB144" s="21" t="s">
+      <c r="AB144" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC144" s="17">
         <v>5</v>
       </c>
-      <c r="AD144" s="20" t="s">
+      <c r="AD144" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE144" s="20" t="s">
+      <c r="AE144" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="145" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
         <v>225</v>
       </c>
@@ -15215,7 +15223,7 @@
       <c r="C145" s="18">
         <v>21</v>
       </c>
-      <c r="D145" s="19" t="s">
+      <c r="D145" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E145" s="18">
@@ -15281,26 +15289,26 @@
       <c r="Y145" s="17">
         <v>10</v>
       </c>
-      <c r="Z145" s="20" t="s">
+      <c r="Z145" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA145" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB145" s="21" t="s">
+      <c r="AB145" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC145" s="17">
         <v>5</v>
       </c>
-      <c r="AD145" s="20" t="s">
+      <c r="AD145" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE145" s="20" t="s">
+      <c r="AE145" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="146" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="17" t="s">
         <v>226</v>
       </c>
@@ -15310,7 +15318,7 @@
       <c r="C146" s="18">
         <v>22</v>
       </c>
-      <c r="D146" s="19" t="s">
+      <c r="D146" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E146" s="18">
@@ -15376,26 +15384,26 @@
       <c r="Y146" s="17">
         <v>10</v>
       </c>
-      <c r="Z146" s="20" t="s">
+      <c r="Z146" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA146" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB146" s="21" t="s">
+      <c r="AB146" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC146" s="17">
         <v>5</v>
       </c>
-      <c r="AD146" s="20" t="s">
+      <c r="AD146" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE146" s="20" t="s">
+      <c r="AE146" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="147" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="17" t="s">
         <v>227</v>
       </c>
@@ -15405,7 +15413,7 @@
       <c r="C147" s="18">
         <v>23</v>
       </c>
-      <c r="D147" s="19" t="s">
+      <c r="D147" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E147" s="18">
@@ -15471,26 +15479,26 @@
       <c r="Y147" s="17">
         <v>10</v>
       </c>
-      <c r="Z147" s="20" t="s">
+      <c r="Z147" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA147" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB147" s="21" t="s">
+      <c r="AB147" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC147" s="17">
         <v>5</v>
       </c>
-      <c r="AD147" s="20" t="s">
+      <c r="AD147" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE147" s="20" t="s">
+      <c r="AE147" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="148" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="17" t="s">
         <v>228</v>
       </c>
@@ -15500,7 +15508,7 @@
       <c r="C148" s="18">
         <v>24</v>
       </c>
-      <c r="D148" s="19" t="s">
+      <c r="D148" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E148" s="18">
@@ -15566,26 +15574,26 @@
       <c r="Y148" s="17">
         <v>10</v>
       </c>
-      <c r="Z148" s="20" t="s">
+      <c r="Z148" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA148" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB148" s="21" t="s">
+      <c r="AB148" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC148" s="17">
         <v>5</v>
       </c>
-      <c r="AD148" s="20" t="s">
+      <c r="AD148" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE148" s="20" t="s">
+      <c r="AE148" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="149" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="17" t="s">
         <v>229</v>
       </c>
@@ -15595,7 +15603,7 @@
       <c r="C149" s="18">
         <v>25</v>
       </c>
-      <c r="D149" s="19" t="s">
+      <c r="D149" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E149" s="18">
@@ -15661,26 +15669,26 @@
       <c r="Y149" s="17">
         <v>10</v>
       </c>
-      <c r="Z149" s="20" t="s">
+      <c r="Z149" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA149" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB149" s="21" t="s">
+      <c r="AB149" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC149" s="17">
         <v>5</v>
       </c>
-      <c r="AD149" s="20" t="s">
+      <c r="AD149" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE149" s="20" t="s">
+      <c r="AE149" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="150" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="17" t="s">
         <v>230</v>
       </c>
@@ -15690,7 +15698,7 @@
       <c r="C150" s="18">
         <v>26</v>
       </c>
-      <c r="D150" s="19" t="s">
+      <c r="D150" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E150" s="18">
@@ -15756,26 +15764,26 @@
       <c r="Y150" s="17">
         <v>10</v>
       </c>
-      <c r="Z150" s="20" t="s">
+      <c r="Z150" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA150" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB150" s="21" t="s">
+      <c r="AB150" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC150" s="17">
         <v>5</v>
       </c>
-      <c r="AD150" s="20" t="s">
+      <c r="AD150" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE150" s="20" t="s">
+      <c r="AE150" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="151" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="s">
         <v>231</v>
       </c>
@@ -15785,7 +15793,7 @@
       <c r="C151" s="18">
         <v>27</v>
       </c>
-      <c r="D151" s="19" t="s">
+      <c r="D151" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E151" s="18">
@@ -15851,26 +15859,26 @@
       <c r="Y151" s="17">
         <v>10</v>
       </c>
-      <c r="Z151" s="20" t="s">
+      <c r="Z151" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA151" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB151" s="21" t="s">
+      <c r="AB151" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC151" s="17">
         <v>5</v>
       </c>
-      <c r="AD151" s="20" t="s">
+      <c r="AD151" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE151" s="20" t="s">
+      <c r="AE151" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="152" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="17" t="s">
         <v>232</v>
       </c>
@@ -15880,7 +15888,7 @@
       <c r="C152" s="18">
         <v>28</v>
       </c>
-      <c r="D152" s="19" t="s">
+      <c r="D152" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E152" s="18">
@@ -15946,26 +15954,26 @@
       <c r="Y152" s="17">
         <v>10</v>
       </c>
-      <c r="Z152" s="20" t="s">
+      <c r="Z152" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA152" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB152" s="21" t="s">
+      <c r="AB152" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC152" s="17">
         <v>5</v>
       </c>
-      <c r="AD152" s="20" t="s">
+      <c r="AD152" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE152" s="20" t="s">
+      <c r="AE152" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="153" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="s">
         <v>233</v>
       </c>
@@ -15975,7 +15983,7 @@
       <c r="C153" s="18">
         <v>29</v>
       </c>
-      <c r="D153" s="19" t="s">
+      <c r="D153" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E153" s="18">
@@ -16041,26 +16049,26 @@
       <c r="Y153" s="17">
         <v>10</v>
       </c>
-      <c r="Z153" s="20" t="s">
+      <c r="Z153" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA153" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB153" s="21" t="s">
+      <c r="AB153" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC153" s="17">
         <v>5</v>
       </c>
-      <c r="AD153" s="20" t="s">
+      <c r="AD153" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE153" s="20" t="s">
+      <c r="AE153" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="154" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="17" t="s">
         <v>234</v>
       </c>
@@ -16070,7 +16078,7 @@
       <c r="C154" s="18">
         <v>30</v>
       </c>
-      <c r="D154" s="19" t="s">
+      <c r="D154" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E154" s="18">
@@ -16136,26 +16144,26 @@
       <c r="Y154" s="17">
         <v>10</v>
       </c>
-      <c r="Z154" s="20" t="s">
+      <c r="Z154" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA154" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB154" s="21" t="s">
+      <c r="AB154" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC154" s="17">
         <v>5</v>
       </c>
-      <c r="AD154" s="20" t="s">
+      <c r="AD154" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE154" s="20" t="s">
+      <c r="AE154" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="155" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="17" t="s">
         <v>235</v>
       </c>
@@ -16165,7 +16173,7 @@
       <c r="C155" s="18">
         <v>31</v>
       </c>
-      <c r="D155" s="19" t="s">
+      <c r="D155" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E155" s="18">
@@ -16231,26 +16239,26 @@
       <c r="Y155" s="17">
         <v>10</v>
       </c>
-      <c r="Z155" s="20" t="s">
+      <c r="Z155" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA155" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB155" s="21" t="s">
+      <c r="AB155" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC155" s="17">
         <v>5</v>
       </c>
-      <c r="AD155" s="20" t="s">
+      <c r="AD155" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE155" s="20" t="s">
+      <c r="AE155" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="s">
         <v>236</v>
       </c>
@@ -16260,7 +16268,7 @@
       <c r="C156" s="18">
         <v>32</v>
       </c>
-      <c r="D156" s="19" t="s">
+      <c r="D156" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E156" s="18">
@@ -16326,26 +16334,26 @@
       <c r="Y156" s="17">
         <v>10</v>
       </c>
-      <c r="Z156" s="20" t="s">
+      <c r="Z156" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA156" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB156" s="21" t="s">
+      <c r="AB156" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC156" s="17">
         <v>5</v>
       </c>
-      <c r="AD156" s="20" t="s">
+      <c r="AD156" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE156" s="20" t="s">
+      <c r="AE156" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="17" t="s">
         <v>237</v>
       </c>
@@ -16355,7 +16363,7 @@
       <c r="C157" s="18">
         <v>33</v>
       </c>
-      <c r="D157" s="19" t="s">
+      <c r="D157" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E157" s="18">
@@ -16421,26 +16429,26 @@
       <c r="Y157" s="17">
         <v>10</v>
       </c>
-      <c r="Z157" s="20" t="s">
+      <c r="Z157" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA157" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB157" s="21" t="s">
+      <c r="AB157" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC157" s="17">
         <v>5</v>
       </c>
-      <c r="AD157" s="20" t="s">
+      <c r="AD157" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE157" s="20" t="s">
+      <c r="AE157" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="158" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="17" t="s">
         <v>238</v>
       </c>
@@ -16450,7 +16458,7 @@
       <c r="C158" s="18">
         <v>34</v>
       </c>
-      <c r="D158" s="19" t="s">
+      <c r="D158" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E158" s="18">
@@ -16516,26 +16524,26 @@
       <c r="Y158" s="17">
         <v>10</v>
       </c>
-      <c r="Z158" s="20" t="s">
+      <c r="Z158" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA158" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB158" s="21" t="s">
+      <c r="AB158" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC158" s="17">
         <v>5</v>
       </c>
-      <c r="AD158" s="20" t="s">
+      <c r="AD158" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE158" s="20" t="s">
+      <c r="AE158" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="159" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="17" t="s">
         <v>239</v>
       </c>
@@ -16545,7 +16553,7 @@
       <c r="C159" s="18">
         <v>35</v>
       </c>
-      <c r="D159" s="19" t="s">
+      <c r="D159" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E159" s="18">
@@ -16611,26 +16619,26 @@
       <c r="Y159" s="17">
         <v>10</v>
       </c>
-      <c r="Z159" s="20" t="s">
+      <c r="Z159" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA159" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB159" s="21" t="s">
+      <c r="AB159" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC159" s="17">
         <v>5</v>
       </c>
-      <c r="AD159" s="20" t="s">
+      <c r="AD159" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE159" s="20" t="s">
+      <c r="AE159" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="17" t="s">
         <v>240</v>
       </c>
@@ -16640,7 +16648,7 @@
       <c r="C160" s="18">
         <v>36</v>
       </c>
-      <c r="D160" s="19" t="s">
+      <c r="D160" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E160" s="18">
@@ -16706,26 +16714,26 @@
       <c r="Y160" s="17">
         <v>10</v>
       </c>
-      <c r="Z160" s="20" t="s">
+      <c r="Z160" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA160" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB160" s="21" t="s">
+      <c r="AB160" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC160" s="17">
         <v>5</v>
       </c>
-      <c r="AD160" s="20" t="s">
+      <c r="AD160" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE160" s="20" t="s">
+      <c r="AE160" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="161" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="17" t="s">
         <v>241</v>
       </c>
@@ -16735,7 +16743,7 @@
       <c r="C161" s="18">
         <v>37</v>
       </c>
-      <c r="D161" s="19" t="s">
+      <c r="D161" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E161" s="18">
@@ -16801,26 +16809,26 @@
       <c r="Y161" s="17">
         <v>10</v>
       </c>
-      <c r="Z161" s="20" t="s">
+      <c r="Z161" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA161" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB161" s="21" t="s">
+      <c r="AB161" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC161" s="17">
         <v>5</v>
       </c>
-      <c r="AD161" s="20" t="s">
+      <c r="AD161" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE161" s="20" t="s">
+      <c r="AE161" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="162" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="17" t="s">
         <v>242</v>
       </c>
@@ -16830,7 +16838,7 @@
       <c r="C162" s="18">
         <v>38</v>
       </c>
-      <c r="D162" s="19" t="s">
+      <c r="D162" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E162" s="18">
@@ -16896,26 +16904,26 @@
       <c r="Y162" s="17">
         <v>10</v>
       </c>
-      <c r="Z162" s="20" t="s">
+      <c r="Z162" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA162" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB162" s="21" t="s">
+      <c r="AB162" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC162" s="17">
         <v>5</v>
       </c>
-      <c r="AD162" s="20" t="s">
+      <c r="AD162" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE162" s="20" t="s">
+      <c r="AE162" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="163" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="17" t="s">
         <v>243</v>
       </c>
@@ -16925,7 +16933,7 @@
       <c r="C163" s="18">
         <v>39</v>
       </c>
-      <c r="D163" s="19" t="s">
+      <c r="D163" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E163" s="18">
@@ -16991,26 +16999,26 @@
       <c r="Y163" s="17">
         <v>10</v>
       </c>
-      <c r="Z163" s="20" t="s">
+      <c r="Z163" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA163" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB163" s="21" t="s">
+      <c r="AB163" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC163" s="17">
         <v>5</v>
       </c>
-      <c r="AD163" s="20" t="s">
+      <c r="AD163" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE163" s="20" t="s">
+      <c r="AE163" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="164" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="17" t="s">
         <v>244</v>
       </c>
@@ -17020,7 +17028,7 @@
       <c r="C164" s="18">
         <v>40</v>
       </c>
-      <c r="D164" s="19" t="s">
+      <c r="D164" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E164" s="18">
@@ -17086,26 +17094,26 @@
       <c r="Y164" s="17">
         <v>10</v>
       </c>
-      <c r="Z164" s="20" t="s">
+      <c r="Z164" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA164" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB164" s="21" t="s">
+      <c r="AB164" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC164" s="17">
         <v>5</v>
       </c>
-      <c r="AD164" s="20" t="s">
+      <c r="AD164" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE164" s="20" t="s">
+      <c r="AE164" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="165" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="17" t="s">
         <v>245</v>
       </c>
@@ -17115,7 +17123,7 @@
       <c r="C165" s="18">
         <v>41</v>
       </c>
-      <c r="D165" s="19" t="s">
+      <c r="D165" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E165" s="18">
@@ -17181,26 +17189,26 @@
       <c r="Y165" s="17">
         <v>10</v>
       </c>
-      <c r="Z165" s="20" t="s">
+      <c r="Z165" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA165" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB165" s="21" t="s">
+      <c r="AB165" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC165" s="17">
         <v>5</v>
       </c>
-      <c r="AD165" s="20" t="s">
+      <c r="AD165" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE165" s="20" t="s">
+      <c r="AE165" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="166" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="17" t="s">
         <v>246</v>
       </c>
@@ -17210,7 +17218,7 @@
       <c r="C166" s="18">
         <v>42</v>
       </c>
-      <c r="D166" s="19" t="s">
+      <c r="D166" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E166" s="18">
@@ -17276,26 +17284,26 @@
       <c r="Y166" s="17">
         <v>10</v>
       </c>
-      <c r="Z166" s="20" t="s">
+      <c r="Z166" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA166" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB166" s="21" t="s">
+      <c r="AB166" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC166" s="17">
         <v>5</v>
       </c>
-      <c r="AD166" s="20" t="s">
+      <c r="AD166" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE166" s="20" t="s">
+      <c r="AE166" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="s">
         <v>247</v>
       </c>
@@ -17305,7 +17313,7 @@
       <c r="C167" s="18">
         <v>43</v>
       </c>
-      <c r="D167" s="19" t="s">
+      <c r="D167" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E167" s="18">
@@ -17371,26 +17379,26 @@
       <c r="Y167" s="17">
         <v>10</v>
       </c>
-      <c r="Z167" s="20" t="s">
+      <c r="Z167" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA167" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB167" s="21" t="s">
+      <c r="AB167" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC167" s="17">
         <v>5</v>
       </c>
-      <c r="AD167" s="20" t="s">
+      <c r="AD167" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE167" s="20" t="s">
+      <c r="AE167" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="168" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
         <v>248</v>
       </c>
@@ -17400,7 +17408,7 @@
       <c r="C168" s="18">
         <v>44</v>
       </c>
-      <c r="D168" s="19" t="s">
+      <c r="D168" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E168" s="18">
@@ -17466,26 +17474,26 @@
       <c r="Y168" s="17">
         <v>10</v>
       </c>
-      <c r="Z168" s="20" t="s">
+      <c r="Z168" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA168" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB168" s="21" t="s">
+      <c r="AB168" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC168" s="17">
         <v>5</v>
       </c>
-      <c r="AD168" s="20" t="s">
+      <c r="AD168" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE168" s="20" t="s">
+      <c r="AE168" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="169" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
         <v>249</v>
       </c>
@@ -17495,7 +17503,7 @@
       <c r="C169" s="18">
         <v>45</v>
       </c>
-      <c r="D169" s="19" t="s">
+      <c r="D169" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E169" s="18">
@@ -17561,26 +17569,26 @@
       <c r="Y169" s="17">
         <v>10</v>
       </c>
-      <c r="Z169" s="20" t="s">
+      <c r="Z169" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA169" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB169" s="21" t="s">
+      <c r="AB169" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC169" s="17">
         <v>5</v>
       </c>
-      <c r="AD169" s="20" t="s">
+      <c r="AD169" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE169" s="20" t="s">
+      <c r="AE169" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="170" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="17" t="s">
         <v>250</v>
       </c>
@@ -17590,7 +17598,7 @@
       <c r="C170" s="18">
         <v>46</v>
       </c>
-      <c r="D170" s="19" t="s">
+      <c r="D170" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E170" s="18">
@@ -17656,26 +17664,26 @@
       <c r="Y170" s="17">
         <v>10</v>
       </c>
-      <c r="Z170" s="20" t="s">
+      <c r="Z170" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA170" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB170" s="21" t="s">
+      <c r="AB170" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC170" s="17">
         <v>5</v>
       </c>
-      <c r="AD170" s="20" t="s">
+      <c r="AD170" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE170" s="20" t="s">
+      <c r="AE170" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="171" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="17" t="s">
         <v>251</v>
       </c>
@@ -17685,7 +17693,7 @@
       <c r="C171" s="18">
         <v>47</v>
       </c>
-      <c r="D171" s="19" t="s">
+      <c r="D171" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E171" s="18">
@@ -17751,26 +17759,26 @@
       <c r="Y171" s="17">
         <v>10</v>
       </c>
-      <c r="Z171" s="20" t="s">
+      <c r="Z171" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA171" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB171" s="21" t="s">
+      <c r="AB171" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC171" s="17">
         <v>5</v>
       </c>
-      <c r="AD171" s="20" t="s">
+      <c r="AD171" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE171" s="20" t="s">
+      <c r="AE171" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="172" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="17" t="s">
         <v>252</v>
       </c>
@@ -17780,7 +17788,7 @@
       <c r="C172" s="18">
         <v>48</v>
       </c>
-      <c r="D172" s="19" t="s">
+      <c r="D172" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E172" s="18">
@@ -17846,26 +17854,26 @@
       <c r="Y172" s="17">
         <v>10</v>
       </c>
-      <c r="Z172" s="20" t="s">
+      <c r="Z172" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA172" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB172" s="21" t="s">
+      <c r="AB172" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC172" s="17">
         <v>5</v>
       </c>
-      <c r="AD172" s="20" t="s">
+      <c r="AD172" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE172" s="20" t="s">
+      <c r="AE172" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="173" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
         <v>253</v>
       </c>
@@ -17875,7 +17883,7 @@
       <c r="C173" s="18">
         <v>49</v>
       </c>
-      <c r="D173" s="19" t="s">
+      <c r="D173" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E173" s="18">
@@ -17941,26 +17949,26 @@
       <c r="Y173" s="17">
         <v>10</v>
       </c>
-      <c r="Z173" s="20" t="s">
+      <c r="Z173" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA173" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB173" s="21" t="s">
+      <c r="AB173" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC173" s="17">
         <v>5</v>
       </c>
-      <c r="AD173" s="20" t="s">
+      <c r="AD173" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE173" s="20" t="s">
+      <c r="AE173" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="174" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="17" t="s">
         <v>254</v>
       </c>
@@ -17970,7 +17978,7 @@
       <c r="C174" s="18">
         <v>50</v>
       </c>
-      <c r="D174" s="19" t="s">
+      <c r="D174" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E174" s="18">
@@ -18036,26 +18044,26 @@
       <c r="Y174" s="17">
         <v>10</v>
       </c>
-      <c r="Z174" s="20" t="s">
+      <c r="Z174" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA174" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB174" s="21" t="s">
+      <c r="AB174" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC174" s="17">
         <v>5</v>
       </c>
-      <c r="AD174" s="20" t="s">
+      <c r="AD174" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE174" s="20" t="s">
+      <c r="AE174" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="175" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="17" t="s">
         <v>255</v>
       </c>
@@ -18065,7 +18073,7 @@
       <c r="C175" s="18">
         <v>51</v>
       </c>
-      <c r="D175" s="19" t="s">
+      <c r="D175" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E175" s="18">
@@ -18131,26 +18139,26 @@
       <c r="Y175" s="17">
         <v>10</v>
       </c>
-      <c r="Z175" s="20" t="s">
+      <c r="Z175" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA175" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB175" s="21" t="s">
+      <c r="AB175" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC175" s="17">
         <v>5</v>
       </c>
-      <c r="AD175" s="20" t="s">
+      <c r="AD175" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE175" s="20" t="s">
+      <c r="AE175" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="176" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="17" t="s">
         <v>256</v>
       </c>
@@ -18160,7 +18168,7 @@
       <c r="C176" s="18">
         <v>52</v>
       </c>
-      <c r="D176" s="19" t="s">
+      <c r="D176" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E176" s="18">
@@ -18226,26 +18234,26 @@
       <c r="Y176" s="17">
         <v>10</v>
       </c>
-      <c r="Z176" s="20" t="s">
+      <c r="Z176" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA176" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB176" s="21" t="s">
+      <c r="AB176" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC176" s="17">
         <v>5</v>
       </c>
-      <c r="AD176" s="20" t="s">
+      <c r="AD176" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE176" s="20" t="s">
+      <c r="AE176" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="177" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
         <v>257</v>
       </c>
@@ -18255,7 +18263,7 @@
       <c r="C177" s="18">
         <v>53</v>
       </c>
-      <c r="D177" s="19" t="s">
+      <c r="D177" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E177" s="18">
@@ -18321,26 +18329,26 @@
       <c r="Y177" s="17">
         <v>10</v>
       </c>
-      <c r="Z177" s="20" t="s">
+      <c r="Z177" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA177" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB177" s="21" t="s">
+      <c r="AB177" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC177" s="17">
         <v>5</v>
       </c>
-      <c r="AD177" s="20" t="s">
+      <c r="AD177" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE177" s="20" t="s">
+      <c r="AE177" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="178" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="s">
         <v>258</v>
       </c>
@@ -18350,7 +18358,7 @@
       <c r="C178" s="18">
         <v>54</v>
       </c>
-      <c r="D178" s="19" t="s">
+      <c r="D178" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E178" s="18">
@@ -18416,26 +18424,26 @@
       <c r="Y178" s="17">
         <v>10</v>
       </c>
-      <c r="Z178" s="20" t="s">
+      <c r="Z178" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA178" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB178" s="21" t="s">
+      <c r="AB178" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC178" s="17">
         <v>5</v>
       </c>
-      <c r="AD178" s="20" t="s">
+      <c r="AD178" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE178" s="20" t="s">
+      <c r="AE178" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="179" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
         <v>259</v>
       </c>
@@ -18445,7 +18453,7 @@
       <c r="C179" s="18">
         <v>55</v>
       </c>
-      <c r="D179" s="19" t="s">
+      <c r="D179" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E179" s="18">
@@ -18511,26 +18519,26 @@
       <c r="Y179" s="17">
         <v>10</v>
       </c>
-      <c r="Z179" s="20" t="s">
+      <c r="Z179" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA179" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB179" s="21" t="s">
+      <c r="AB179" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC179" s="17">
         <v>5</v>
       </c>
-      <c r="AD179" s="20" t="s">
+      <c r="AD179" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE179" s="20" t="s">
+      <c r="AE179" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="17" t="s">
         <v>260</v>
       </c>
@@ -18540,7 +18548,7 @@
       <c r="C180" s="18">
         <v>56</v>
       </c>
-      <c r="D180" s="19" t="s">
+      <c r="D180" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E180" s="18">
@@ -18606,26 +18614,26 @@
       <c r="Y180" s="17">
         <v>10</v>
       </c>
-      <c r="Z180" s="20" t="s">
+      <c r="Z180" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA180" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB180" s="21" t="s">
+      <c r="AB180" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC180" s="17">
         <v>5</v>
       </c>
-      <c r="AD180" s="20" t="s">
+      <c r="AD180" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE180" s="20" t="s">
+      <c r="AE180" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="17" t="s">
         <v>261</v>
       </c>
@@ -18635,7 +18643,7 @@
       <c r="C181" s="18">
         <v>57</v>
       </c>
-      <c r="D181" s="19" t="s">
+      <c r="D181" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E181" s="18">
@@ -18701,26 +18709,26 @@
       <c r="Y181" s="17">
         <v>10</v>
       </c>
-      <c r="Z181" s="20" t="s">
+      <c r="Z181" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA181" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB181" s="21" t="s">
+      <c r="AB181" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC181" s="17">
         <v>5</v>
       </c>
-      <c r="AD181" s="20" t="s">
+      <c r="AD181" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE181" s="20" t="s">
+      <c r="AE181" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="182" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="17" t="s">
         <v>262</v>
       </c>
@@ -18730,7 +18738,7 @@
       <c r="C182" s="18">
         <v>58</v>
       </c>
-      <c r="D182" s="19" t="s">
+      <c r="D182" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E182" s="18">
@@ -18796,26 +18804,26 @@
       <c r="Y182" s="17">
         <v>10</v>
       </c>
-      <c r="Z182" s="20" t="s">
+      <c r="Z182" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA182" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB182" s="21" t="s">
+      <c r="AB182" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC182" s="17">
         <v>5</v>
       </c>
-      <c r="AD182" s="20" t="s">
+      <c r="AD182" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE182" s="20" t="s">
+      <c r="AE182" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="183" spans="1:31" s="17" customFormat="1" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:31" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
         <v>263</v>
       </c>
@@ -18825,7 +18833,7 @@
       <c r="C183" s="18">
         <v>59</v>
       </c>
-      <c r="D183" s="19" t="s">
+      <c r="D183" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E183" s="18">
@@ -18891,26 +18899,26 @@
       <c r="Y183" s="17">
         <v>10</v>
       </c>
-      <c r="Z183" s="20" t="s">
+      <c r="Z183" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA183" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB183" s="21" t="s">
+      <c r="AB183" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC183" s="17">
         <v>5</v>
       </c>
-      <c r="AD183" s="20" t="s">
+      <c r="AD183" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE183" s="20" t="s">
+      <c r="AE183" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="184" spans="1:31" s="17" customFormat="1" ht="16.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:31" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="17" t="s">
         <v>264</v>
       </c>
@@ -18920,10 +18928,10 @@
       <c r="C184" s="18">
         <v>60</v>
       </c>
-      <c r="D184" s="19" t="s">
+      <c r="D184" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="E184" s="24">
+      <c r="E184" s="23">
         <v>2688600</v>
       </c>
       <c r="F184" s="17" t="s">
@@ -18953,13 +18961,13 @@
       <c r="N184" s="17">
         <v>5</v>
       </c>
-      <c r="O184" s="25">
+      <c r="O184" s="24">
         <v>851</v>
       </c>
-      <c r="P184" s="23">
+      <c r="P184" s="22">
         <v>634</v>
       </c>
-      <c r="Q184" s="23">
+      <c r="Q184" s="22">
         <v>84400</v>
       </c>
       <c r="R184" s="17">
@@ -18986,22 +18994,22 @@
       <c r="Y184" s="17">
         <v>10</v>
       </c>
-      <c r="Z184" s="20" t="s">
+      <c r="Z184" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA184" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AB184" s="21" t="s">
+      <c r="AB184" s="20" t="s">
         <v>71</v>
       </c>
       <c r="AC184" s="17">
         <v>5</v>
       </c>
-      <c r="AD184" s="20" t="s">
+      <c r="AD184" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE184" s="20" t="s">
+      <c r="AE184" s="19" t="s">
         <v>205</v>
       </c>
     </row>
